--- a/logs/Benchmarks/gravity_benchmark.xlsx
+++ b/logs/Benchmarks/gravity_benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProjects\deepLearning\myCodes\gravity_optimizer\logs\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9F5390-EF5B-421D-A56F-2044A2291DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD131692-C744-4092-A0AF-3510E6B4B543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,304 +622,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.0483366250991799</c:v>
+                  <c:v>0.63436037302017201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4910199046134893E-2</c:v>
+                  <c:v>5.9533160179853398E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5079430341720498E-2</c:v>
+                  <c:v>3.8917817175388301E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.17070798575878E-2</c:v>
+                  <c:v>2.4025645107030799E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0426137149333898E-2</c:v>
+                  <c:v>1.73030234873294E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.56824735552072E-2</c:v>
+                  <c:v>1.61436721682548E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0023293793201401E-2</c:v>
+                  <c:v>1.10499104484915E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3592849485576101E-2</c:v>
+                  <c:v>9.7873425111174497E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4012302272021699E-2</c:v>
+                  <c:v>6.3539273105561699E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0506912134587701E-2</c:v>
+                  <c:v>7.4138590134680202E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8092602565884503E-3</c:v>
+                  <c:v>4.4658235274255198E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.01500274613499E-2</c:v>
+                  <c:v>6.1606983654200996E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1515340134501405E-3</c:v>
+                  <c:v>3.3605124335736002E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.4660779684781994E-3</c:v>
+                  <c:v>1.38359854463487E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0766835920512598E-3</c:v>
+                  <c:v>4.7235752572305501E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2254595793783604E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.4215009547769997E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8461946640163599E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.5212900042533796E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0570825114846204E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9222688172012498E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.6148515753448001E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.80226529482752E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.8466085465624896E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.7744139768183201E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.08275907486677E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5756579600274502E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.2966451942920598E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.0595758687704802E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.4610026739537699E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.2293921150267102E-4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.9440505420789101E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.4071533698588601E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.7654312220402002E-4</c:v>
+                  <c:v>5.69055613595992E-4</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>6.0762027715099901E-5</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>1.6637412045383799E-5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>1.1345578968757701E-5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>8.7959342636168003E-6</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>7.1805452535045299E-6</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>6.05790273766615E-6</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>5.2451332521741202E-6</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>4.6081572691036803E-6</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>4.1093949221249204E-6</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>3.69607300854113E-6</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>3.3639300909271599E-6</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>3.0805788355792098E-6</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>2.8416727673175E-6</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>2.6345765036239699E-6</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>2.4512694380973699E-6</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>2.2944657303014499E-6</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>2.1565006136370302E-6</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00E+00">
+                  <c:v>2.0309244064264901E-6</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>4.5073560613673099E-5</c:v>
+                  <c:v>1.9192366380593701E-6</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>9.8290565802017193E-6</c:v>
+                  <c:v>1.81917903319117E-6</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>6.5030799305532102E-6</c:v>
+                  <c:v>1.73203773101704E-6</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>5.2769050853385099E-6</c:v>
+                  <c:v>1.6467132581965401E-6</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.4906291805091297E-6</c:v>
+                  <c:v>1.5714955452494899E-6</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.9233509596670004E-6</c:v>
+                  <c:v>1.5029149835754601E-6</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.4916747608804102E-6</c:v>
+                  <c:v>1.4393881428986701E-6</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.1502008823736101E-6</c:v>
+                  <c:v>1.3817325452691799E-6</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>2.8704475880658699E-6</c:v>
+                  <c:v>1.32734498947684E-6</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>2.63694596469576E-6</c:v>
+                  <c:v>1.27737666844041E-6</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>2.4383991785725799E-6</c:v>
+                  <c:v>1.2314201285335E-6</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>2.2689125671604398E-6</c:v>
+                  <c:v>1.18789478165126E-6</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>2.1212576939433301E-6</c:v>
+                  <c:v>1.14664169359457E-6</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.99031796910276E-6</c:v>
+                  <c:v>1.10882933768152E-6</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.8752812138700301E-6</c:v>
+                  <c:v>1.0730402664194099E-6</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.77257300038036E-6</c:v>
+                  <c:v>1.0392774356659999E-6</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.68137285072589E-6</c:v>
+                  <c:v>1.0075416412291801E-6</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.59846365477278E-6</c:v>
+                  <c:v>9.7785243724501903E-7</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.52283450916002E-6</c:v>
+                  <c:v>9.49832326568866E-7</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.45484989388933E-6</c:v>
+                  <c:v>9.2339695356713396E-7</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.39207656957296E-6</c:v>
+                  <c:v>8.9818502146954405E-7</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.3350920653465401E-6</c:v>
+                  <c:v>8.7378776925106596E-7</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.28209251215594E-6</c:v>
+                  <c:v>8.5062839616512001E-7</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.2337980024312801E-6</c:v>
+                  <c:v>8.2930370126632603E-7</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.1888510016433399E-6</c:v>
+                  <c:v>8.0854289308263095E-7</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.14657234462356E-6</c:v>
+                  <c:v>7.8911193668318404E-7</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.1075946986238701E-6</c:v>
+                  <c:v>7.7052635560903497E-7</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.0711678442021301E-6</c:v>
+                  <c:v>7.5213807804175303E-7</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.0372799579272301E-6</c:v>
+                  <c:v>7.3532254418751098E-7</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.00497800303855E-6</c:v>
+                  <c:v>7.1905122922544198E-7</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.7479039595782503E-7</c:v>
+                  <c:v>7.0305850385921002E-7</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.4646583193025404E-7</c:v>
+                  <c:v>6.8800522967649105E-7</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.1970855464751303E-7</c:v>
+                  <c:v>6.7387713897914996E-7</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>8.9452396423439495E-7</c:v>
+                  <c:v>6.6001689447148195E-7</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00E+00">
-                  <c:v>8.7021442141121899E-7</c:v>
+                  <c:v>6.4659985810067102E-7</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="0.00E+00">
-                  <c:v>8.47411172344436E-7</c:v>
+                  <c:v>6.3379354742210104E-7</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00E+00">
-                  <c:v>8.2567117942744496E-7</c:v>
+                  <c:v>6.2168192016542804E-7</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00E+00">
-                  <c:v>8.0508181099503396E-7</c:v>
+                  <c:v>6.0984200445091098E-7</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00E+00">
-                  <c:v>7.8532889347115997E-7</c:v>
+                  <c:v>5.9852663980564103E-7</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="0.00E+00">
-                  <c:v>7.6653435598927899E-7</c:v>
+                  <c:v>5.8740818076330396E-7</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00E+00">
-                  <c:v>7.4857058507404798E-7</c:v>
+                  <c:v>5.76801767238066E-7</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00E+00">
-                  <c:v>7.3139153755619095E-7</c:v>
+                  <c:v>5.6652265811862805E-7</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00E+00">
-                  <c:v>7.1499232490168599E-7</c:v>
+                  <c:v>5.5673865517746805E-7</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00E+00">
-                  <c:v>6.9947918746038298E-7</c:v>
+                  <c:v>5.4708783636669903E-7</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00E+00">
-                  <c:v>6.8441113398875999E-7</c:v>
+                  <c:v>5.3782963505000204E-7</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00E+00">
-                  <c:v>6.7021886707152505E-7</c:v>
+                  <c:v>5.2874469247399205E-7</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="0.00E+00">
-                  <c:v>6.5638579371807197E-7</c:v>
+                  <c:v>5.2026132379978599E-7</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="0.00E+00">
-                  <c:v>6.43361488528171E-7</c:v>
+                  <c:v>5.1198992423451199E-7</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="0.00E+00">
-                  <c:v>6.3077351342144496E-7</c:v>
+                  <c:v>5.03715057220688E-7</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="0.00E+00">
-                  <c:v>6.1859532252128702E-7</c:v>
+                  <c:v>4.9590914841246495E-7</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="0.00E+00">
-                  <c:v>6.0691536418744299E-7</c:v>
+                  <c:v>4.8843668309928003E-7</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="0.00E+00">
-                  <c:v>5.9566428944890504E-7</c:v>
+                  <c:v>4.80914309264335E-7</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="0.00E+00">
-                  <c:v>5.8479855624682302E-7</c:v>
+                  <c:v>4.7378753720295197E-7</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="0.00E+00">
-                  <c:v>5.7437591749476195E-7</c:v>
+                  <c:v>4.66777720475874E-7</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="0.00E+00">
-                  <c:v>5.6427489880661597E-7</c:v>
+                  <c:v>4.5996048925189799E-7</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="0.00E+00">
-                  <c:v>5.5454182756875504E-7</c:v>
+                  <c:v>4.5335588083616998E-7</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="0.00E+00">
-                  <c:v>5.4517795433639496E-7</c:v>
+                  <c:v>4.4697185330733101E-7</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="0.00E+00">
-                  <c:v>5.3600410865328698E-7</c:v>
+                  <c:v>4.4078046812501202E-7</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="0.00E+00">
-                  <c:v>5.2724021770700304E-7</c:v>
+                  <c:v>4.34854882769286E-7</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="0.00E+00">
-                  <c:v>5.1879788998121502E-7</c:v>
+                  <c:v>4.2885213247245701E-7</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="0.00E+00">
-                  <c:v>5.1047237548118499E-7</c:v>
+                  <c:v>4.2311935999350601E-7</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="0.00E+00">
-                  <c:v>5.0262008244317205E-7</c:v>
+                  <c:v>4.1750590185074501E-7</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="0.00E+00">
-                  <c:v>4.9486885700389298E-7</c:v>
+                  <c:v>4.1211089296666598E-7</c:v>
                 </c:pt>
                 <c:pt idx="97" formatCode="0.00E+00">
-                  <c:v>4.8727457624408999E-7</c:v>
+                  <c:v>4.06846709211095E-7</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="0.00E+00">
-                  <c:v>4.8006370434450197E-7</c:v>
+                  <c:v>4.0164653114516098E-7</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="0.00E+00">
-                  <c:v>4.7307699446719198E-7</c:v>
+                  <c:v>3.9668447016083498E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2320,304 +2320,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.116397403180599</c:v>
+                  <c:v>5.50789907574653E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.37364771962165E-2</c:v>
+                  <c:v>4.5279055833816501E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4780986607074703E-2</c:v>
+                  <c:v>3.4523531794548E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9133302867412498E-2</c:v>
+                  <c:v>3.0614947900176E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.28715422749519E-2</c:v>
+                  <c:v>3.1521838158369002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.80387550592422E-2</c:v>
+                  <c:v>2.6616912335157301E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1865730881690903E-2</c:v>
+                  <c:v>2.7183733880519801E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3660767823457701E-2</c:v>
+                  <c:v>2.3735119029879501E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.81601585447788E-2</c:v>
+                  <c:v>2.5585098192095701E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7126941829919801E-2</c:v>
+                  <c:v>2.3879224434494899E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4502135813236198E-2</c:v>
+                  <c:v>3.4960631281137397E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.51136827468872E-2</c:v>
+                  <c:v>2.1975193172693201E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2315008342265999E-2</c:v>
+                  <c:v>2.2218972444534298E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3152867332100799E-2</c:v>
+                  <c:v>2.6815289631485901E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6017995327711098E-2</c:v>
+                  <c:v>2.9610702767968101E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2816080152988399E-2</c:v>
+                  <c:v>2.9289618134498499E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0723491683602298E-2</c:v>
+                  <c:v>2.9819900169968602E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0994214117527001E-2</c:v>
+                  <c:v>3.0942490324378E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.6742463260888998E-2</c:v>
+                  <c:v>3.1741559505462598E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7588723227381699E-2</c:v>
+                  <c:v>3.2383613288402502E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1325768679380403E-2</c:v>
+                  <c:v>3.29000949859619E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5907602161169E-2</c:v>
+                  <c:v>3.3347584307193701E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0810741707682599E-2</c:v>
+                  <c:v>3.3744160085916498E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.90041137486696E-2</c:v>
+                  <c:v>3.4081328660249703E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3555878102779298E-2</c:v>
+                  <c:v>3.4397006034850998E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0372366309165899E-2</c:v>
+                  <c:v>3.4697275608778E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.23501878976821E-2</c:v>
+                  <c:v>3.49577516317367E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.4272869825363097E-2</c:v>
+                  <c:v>3.5214491188526098E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3682301640510497E-2</c:v>
+                  <c:v>3.54548692703247E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0013235285878102E-2</c:v>
+                  <c:v>3.5671319812536198E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.6631710827350603E-2</c:v>
+                  <c:v>3.5866111516952501E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.5660978406667702E-2</c:v>
+                  <c:v>3.6066841334104503E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1403828412294298E-2</c:v>
+                  <c:v>3.6249741911888102E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.0055889636278097E-2</c:v>
+                  <c:v>3.6421410739421803E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4797135740518501E-2</c:v>
+                  <c:v>3.6584753543138497E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5215098410844803E-2</c:v>
+                  <c:v>3.6753412336110999E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.5479534417390803E-2</c:v>
+                  <c:v>3.6896027624607003E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.57412099838256E-2</c:v>
+                  <c:v>3.7040565162897103E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.5953819751739502E-2</c:v>
+                  <c:v>3.7185214459895997E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.6127325147390303E-2</c:v>
+                  <c:v>3.7318475544452598E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.6313962191343301E-2</c:v>
+                  <c:v>3.7444598972797297E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6485191434621797E-2</c:v>
+                  <c:v>3.7568058818578699E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.6647710949182503E-2</c:v>
+                  <c:v>3.7691667675971902E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.6795414984226199E-2</c:v>
+                  <c:v>3.7803318351507097E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.6944940686225801E-2</c:v>
+                  <c:v>3.7916477769613197E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.7076305598020498E-2</c:v>
+                  <c:v>3.8025680929422302E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.7201005965471198E-2</c:v>
+                  <c:v>3.8130961358547197E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.7320286035537699E-2</c:v>
+                  <c:v>3.8234978914260802E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.7430800497531801E-2</c:v>
+                  <c:v>3.8335833698511103E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7535421550273798E-2</c:v>
+                  <c:v>3.8430735468864399E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.7634134292602497E-2</c:v>
+                  <c:v>3.8524344563484102E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.7729937583208001E-2</c:v>
+                  <c:v>3.8619592785835197E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.7820756435394197E-2</c:v>
+                  <c:v>3.8709763437509502E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.79099808633327E-2</c:v>
+                  <c:v>3.8795314729213701E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.7995576858520501E-2</c:v>
+                  <c:v>3.8881123065948403E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.8080155849456697E-2</c:v>
+                  <c:v>3.8965795189142199E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.8159508258104297E-2</c:v>
+                  <c:v>3.90439592301845E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.8233146071434E-2</c:v>
+                  <c:v>3.9123155176639501E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.83067429065704E-2</c:v>
+                  <c:v>3.9198745042085599E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.8376286625862101E-2</c:v>
+                  <c:v>3.9274599403142901E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.8444172590970903E-2</c:v>
+                  <c:v>3.9351183921098702E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.8506928831338799E-2</c:v>
+                  <c:v>3.9422657340764999E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.8573596626520101E-2</c:v>
+                  <c:v>3.9494059979915598E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.8630586117505999E-2</c:v>
+                  <c:v>3.9562959223985603E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.8693986833095502E-2</c:v>
+                  <c:v>3.9631135761737803E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.8751982152461999E-2</c:v>
+                  <c:v>3.9695762097835499E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.8807373493909801E-2</c:v>
+                  <c:v>3.9761833846568999E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.8861721754074097E-2</c:v>
+                  <c:v>3.9826847612857798E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.8916237652301698E-2</c:v>
+                  <c:v>3.9887432008981698E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.8967937231063801E-2</c:v>
+                  <c:v>3.9950422942638397E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.9018720388412399E-2</c:v>
+                  <c:v>4.00108322501182E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.90688553452491E-2</c:v>
+                  <c:v>4.0070533752441399E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.9120707660913398E-2</c:v>
+                  <c:v>4.0127307176589903E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.9166994392871801E-2</c:v>
+                  <c:v>4.0186610072851098E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.9214599877595901E-2</c:v>
+                  <c:v>4.02414090931415E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.9261911064386298E-2</c:v>
+                  <c:v>4.0296655148267697E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.93058806657791E-2</c:v>
+                  <c:v>4.0353160351514802E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.9352633059024797E-2</c:v>
+                  <c:v>4.0406562387943198E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.93960364162921E-2</c:v>
+                  <c:v>4.0459744632244103E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.9440326392650597E-2</c:v>
+                  <c:v>4.0509320795536E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.9482235908508301E-2</c:v>
+                  <c:v>4.0562596172094303E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.9522852748632403E-2</c:v>
+                  <c:v>4.0613237768411602E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.9565842598676598E-2</c:v>
+                  <c:v>4.0662147104740101E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.9604511111974702E-2</c:v>
+                  <c:v>4.0710501372814102E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.96470762789249E-2</c:v>
+                  <c:v>4.0758751332759802E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.9686340838670703E-2</c:v>
+                  <c:v>4.0807045996189097E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.97244803607463E-2</c:v>
+                  <c:v>4.0853589773178101E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.9763730019330902E-2</c:v>
+                  <c:v>4.0899202227592399E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.9800763130187898E-2</c:v>
+                  <c:v>4.09446842968463E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.9838206022977801E-2</c:v>
+                  <c:v>4.0989875793456997E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.98734360933303E-2</c:v>
+                  <c:v>4.1033476591110202E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.9910692721605301E-2</c:v>
+                  <c:v>4.1077222675084998E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.9946168661117498E-2</c:v>
+                  <c:v>4.1119623929262099E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.9980631321668597E-2</c:v>
+                  <c:v>4.1162990033626501E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.0014289319515201E-2</c:v>
+                  <c:v>4.1204381734132697E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.0049895644187899E-2</c:v>
+                  <c:v>4.1246388107538202E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.0081132203340503E-2</c:v>
+                  <c:v>4.1287541389465297E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.0115129202604197E-2</c:v>
+                  <c:v>4.1325319558382E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.0147438645362798E-2</c:v>
+                  <c:v>4.1367534548044198E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.0179751813411699E-2</c:v>
+                  <c:v>4.1406176984310102E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4017,106 +4017,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.63866668939590399</c:v>
+                  <c:v>0.78485000133514404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97483330965042103</c:v>
+                  <c:v>0.98193335533142001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98329997062683105</c:v>
+                  <c:v>0.98799997568130404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98780000209808305</c:v>
+                  <c:v>0.99273335933685303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99093335866928101</c:v>
+                  <c:v>0.99458330869674605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99221664667129505</c:v>
+                  <c:v>0.99475002288818304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99390000104904097</c:v>
+                  <c:v>0.99655002355575495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99593335390090898</c:v>
+                  <c:v>0.99701666831970204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99568331241607599</c:v>
+                  <c:v>0.99808335304260198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99656665325164795</c:v>
+                  <c:v>0.99758332967758101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99678331613540605</c:v>
+                  <c:v>0.99853330850601196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99696666002273504</c:v>
+                  <c:v>0.99800002574920599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99725002050399703</c:v>
+                  <c:v>0.99903333187103205</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99716669321060103</c:v>
+                  <c:v>0.99949997663497903</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99848335981368996</c:v>
+                  <c:v>0.99983334541320801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99841666221618597</c:v>
+                  <c:v>0.99983334541320801</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99873334169387795</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99916666746139504</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99833333492278997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99830001592636097</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99910002946853604</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99906665086746205</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99940001964569003</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99983334541320801</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99954998493194502</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99826663732528598</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99865001440048196</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99919998645782404</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99945002794265703</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99910002946853604</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99978333711624101</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99940001964569003</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.99945002794265703</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99981665611267001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1</c:v>
@@ -5715,304 +5715,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.96380001306533802</c:v>
+                  <c:v>0.98150002956390303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97380000352859497</c:v>
+                  <c:v>0.98689997196197499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98930001258850098</c:v>
+                  <c:v>0.98820000886917103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98839998245239202</c:v>
+                  <c:v>0.99010002613067605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.986500024795532</c:v>
+                  <c:v>0.99029999971389704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99080002307891801</c:v>
+                  <c:v>0.99150002002715998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.991100013256073</c:v>
+                  <c:v>0.99220001697540205</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99220001697540205</c:v>
+                  <c:v>0.99379998445510798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.990999996662139</c:v>
+                  <c:v>0.99309998750686601</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.99299997091293302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.993300020694732</c:v>
+                  <c:v>0.991100013256073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98909997940063399</c:v>
+                  <c:v>0.99379998445510798</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99059998989105202</c:v>
+                  <c:v>0.99449998140335005</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.99309998750686601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99360001087188698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.993399977684021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99390000104904097</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.99379998445510798</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.99190002679824796</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.98970001935958796</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99210000038146895</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.99190002679824796</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.98820000886917103</c:v>
+                  <c:v>0.99379998445510798</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99279999732971103</c:v>
+                  <c:v>0.99379998445510798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99269998073577803</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.993399977684021</c:v>
+                  <c:v>0.99379998445510798</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99290001392364502</c:v>
+                  <c:v>0.99379998445510798</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99370002746581998</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99040001630783003</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99299997091293302</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99279999732971103</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99140000343322698</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99370002746581998</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99269998073577803</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99269998073577803</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99190002679824796</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0.99360001087188698</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99360001087188698</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99360001087188698</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99360001087188698</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.99370002746581998</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.99390000104904097</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.99409997463226296</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.99400001764297397</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.99400001764297397</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.99400001764297397</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.99409997463226296</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.99409997463226296</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.99419999122619596</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99370002746581998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99360001087188698</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99379998445510798</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99379998445510798</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.99440002441406194</c:v>
+                  <c:v>0.99379998445510798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7411,304 +7411,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2.0189118385314901</c:v>
+                  <c:v>1.95715844631195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5240353345870901</c:v>
+                  <c:v>1.4603351354598999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.28373634815216</c:v>
+                  <c:v>1.16599261760711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.05421519279479</c:v>
+                  <c:v>0.94991451501846302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87535071372985795</c:v>
+                  <c:v>0.79892492294311501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73952764272689797</c:v>
+                  <c:v>0.65656810998916604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61879211664199796</c:v>
+                  <c:v>0.55197244882583596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51193982362747104</c:v>
+                  <c:v>0.456828743219375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41465428471565202</c:v>
+                  <c:v>0.37372952699661199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.345420122146606</c:v>
+                  <c:v>0.30469083786010698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27142578363418501</c:v>
+                  <c:v>0.243548363447189</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.225191429257392</c:v>
+                  <c:v>0.20138727128505701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18545499444007801</c:v>
+                  <c:v>0.16724149882793399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.146449744701385</c:v>
+                  <c:v>0.13048180937767001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12164635956287299</c:v>
+                  <c:v>0.109414540231227</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.93334054946899E-2</c:v>
+                  <c:v>9.1955870389938299E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.3931706845760304E-2</c:v>
+                  <c:v>8.2345627248287201E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.3235055208206093E-2</c:v>
+                  <c:v>7.1309506893157903E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.4154244959354401E-2</c:v>
+                  <c:v>6.29401579499244E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8681983500719001E-2</c:v>
+                  <c:v>5.3987722843885401E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0415318459272301E-2</c:v>
+                  <c:v>4.6221785247325897E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0137417614459901E-2</c:v>
+                  <c:v>4.7217164188623401E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.2448140680789899E-2</c:v>
+                  <c:v>3.3379703760146998E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.04462963342666E-2</c:v>
+                  <c:v>3.1381200999021502E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4304510802030501E-2</c:v>
+                  <c:v>3.5641238093376097E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5119622945785502E-2</c:v>
+                  <c:v>2.78452858328819E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.79737580567598E-2</c:v>
+                  <c:v>3.2027758657932198E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8163397684693298E-2</c:v>
+                  <c:v>2.17797942459583E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4404246360063501E-2</c:v>
+                  <c:v>2.1153621375560702E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.33517922461032E-2</c:v>
+                  <c:v>2.5032756850123399E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.01627723872661E-2</c:v>
+                  <c:v>2.27398388087749E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7825348302721901E-2</c:v>
+                  <c:v>2.3236852139234501E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.5973152369260701E-2</c:v>
+                  <c:v>1.6601743176579399E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.38445841148495E-2</c:v>
+                  <c:v>2.0300859585404299E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9149610772728899E-2</c:v>
+                  <c:v>1.8484855070710099E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.1247232332825602E-2</c:v>
+                  <c:v>1.40907419845461E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4408721588551899E-2</c:v>
+                  <c:v>1.7730234190821599E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.29403611645102E-2</c:v>
+                  <c:v>1.0158297605812499E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.31350206211209E-2</c:v>
+                  <c:v>1.19425449520349E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.15050598978996E-2</c:v>
+                  <c:v>1.4538636431097899E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.03400142490863E-2</c:v>
+                  <c:v>1.5187957324087601E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.2111872509121895E-3</c:v>
+                  <c:v>1.3908647000789601E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.8500242456793698E-3</c:v>
+                  <c:v>7.0549473166465699E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.54982339590787E-2</c:v>
+                  <c:v>1.1377722956240101E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.9400505423545803E-3</c:v>
+                  <c:v>1.3156129047274499E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.8053122162818891E-3</c:v>
+                  <c:v>5.8106025680899603E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.41021767631173E-2</c:v>
+                  <c:v>1.0356695391237699E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.19257913902401E-2</c:v>
+                  <c:v>1.25251803547143E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1003049090504599E-2</c:v>
+                  <c:v>9.9505037069320592E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0911330580711301E-2</c:v>
+                  <c:v>8.3731710910797102E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.3952518180012703E-3</c:v>
+                  <c:v>1.1417978443205299E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.9583657681941899E-3</c:v>
+                  <c:v>7.3742112144827799E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1168369092047201E-2</c:v>
+                  <c:v>4.5592072419822199E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.5883381068706504E-3</c:v>
+                  <c:v>2.2407360374927499E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.4076188504695892E-3</c:v>
+                  <c:v>7.1927802637219403E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.0666171163320507E-3</c:v>
+                  <c:v>1.08941430225968E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0789127089083099E-2</c:v>
+                  <c:v>8.2681393250823004E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.4934774786233902E-3</c:v>
+                  <c:v>6.3766217790543998E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.13197611644864E-2</c:v>
+                  <c:v>3.0194690916687198E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.7453834712505306E-3</c:v>
+                  <c:v>8.6536668241024E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.6769526824355108E-3</c:v>
+                  <c:v>8.3299605175852706E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.57814012467861E-3</c:v>
+                  <c:v>7.0753768086433402E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.1960186101496202E-3</c:v>
+                  <c:v>6.9167339242994699E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.81444820575416E-3</c:v>
+                  <c:v>5.4286783561110497E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.88308039307594E-3</c:v>
+                  <c:v>6.7719966173171997E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.9785605669021606E-3</c:v>
+                  <c:v>7.3196440935134801E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.3477967157959903E-3</c:v>
+                  <c:v>3.3443544525653098E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.3261550124734601E-3</c:v>
+                  <c:v>4.0312260389328003E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.0892173312604401E-3</c:v>
+                  <c:v>6.3772443681955303E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.1379961185157299E-3</c:v>
+                  <c:v>9.9730901420116407E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.7382504716515506E-3</c:v>
+                  <c:v>8.3085820078849792E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.0591378025710496E-3</c:v>
+                  <c:v>7.3072807863354596E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.6742095835506899E-3</c:v>
+                  <c:v>1.6537351766601201E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.2157312855124404E-3</c:v>
+                  <c:v>3.1457855366170402E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.0233955048024602E-3</c:v>
+                  <c:v>2.6233629323542101E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.9223537836223797E-4</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="0.00E+00">
-                  <c:v>3.2860727515071603E-5</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0.00E+00">
-                  <c:v>1.26584827739861E-5</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="0.00E+00">
-                  <c:v>9.5462928584311107E-6</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="0.00E+00">
-                  <c:v>7.8554803621955199E-6</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="0.00E+00">
-                  <c:v>6.7199389377492404E-6</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="0.00E+00">
-                  <c:v>5.8870382417808202E-6</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="0.00E+00">
-                  <c:v>5.2440332183323301E-6</c:v>
+                  <c:v>5.9305340982973498E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.3742619454860601E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.6708939373493099E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.73987774178385E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.2967231236398198E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.7870019227266303E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5479475259780799E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4312718121800501E-4</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="0.00E+00">
-                  <c:v>4.73173895443324E-6</c:v>
+                  <c:v>2.6313548005418801E-5</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="0.00E+00">
-                  <c:v>4.3119071051478301E-6</c:v>
+                  <c:v>1.0190505236096199E-5</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="0.00E+00">
-                  <c:v>3.9621018004254404E-6</c:v>
+                  <c:v>8.1489479271112907E-6</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="0.00E+00">
-                  <c:v>3.664972837214E-6</c:v>
+                  <c:v>6.88205773258232E-6</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="0.00E+00">
-                  <c:v>3.4097704428859199E-6</c:v>
+                  <c:v>5.9944559325231197E-6</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="0.00E+00">
-                  <c:v>3.1883437259239098E-6</c:v>
+                  <c:v>5.3263115660229198E-6</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="0.00E+00">
-                  <c:v>2.9941793400212102E-6</c:v>
+                  <c:v>4.7991170504246796E-6</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="0.00E+00">
-                  <c:v>2.8220752028573698E-6</c:v>
+                  <c:v>4.3723730414057997E-6</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="0.00E+00">
-                  <c:v>2.66893084699404E-6</c:v>
+                  <c:v>4.0178056224249303E-6</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="0.00E+00">
-                  <c:v>2.5315321181551498E-6</c:v>
+                  <c:v>3.7179961509536901E-6</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="0.00E+00">
-                  <c:v>2.40764893533196E-6</c:v>
+                  <c:v>3.4617046367202399E-6</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="0.00E+00">
-                  <c:v>2.2949882350076202E-6</c:v>
+                  <c:v>3.2390141768701099E-6</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="0.00E+00">
-                  <c:v>2.1927291982137801E-6</c:v>
+                  <c:v>3.04455375044199E-6</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="0.00E+00">
-                  <c:v>2.09890390578948E-6</c:v>
+                  <c:v>2.8720201044052302E-6</c:v>
                 </c:pt>
                 <c:pt idx="97" formatCode="0.00E+00">
-                  <c:v>2.01295779334031E-6</c:v>
+                  <c:v>2.7185883482161401E-6</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="0.00E+00">
-                  <c:v>1.9338801848789402E-6</c:v>
+                  <c:v>2.5804115466598798E-6</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="0.00E+00">
-                  <c:v>1.8608116079121801E-6</c:v>
+                  <c:v>2.45602973336644E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9109,304 +9109,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.7098742723464899</c:v>
+                  <c:v>1.5889191627502399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.37856900691986</c:v>
+                  <c:v>1.35266041755676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1777318716049101</c:v>
+                  <c:v>1.0944231748580899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0757308006286599</c:v>
+                  <c:v>0.93426012992858798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89305782318115201</c:v>
+                  <c:v>0.84033358097076405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89910185337066595</c:v>
+                  <c:v>0.80332118272781305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83695739507675104</c:v>
+                  <c:v>0.72675752639770497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76060479879379195</c:v>
+                  <c:v>0.76306796073913497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79532438516616799</c:v>
+                  <c:v>0.77370500564575195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80723303556442205</c:v>
+                  <c:v>0.72829174995422297</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84250378608703602</c:v>
+                  <c:v>0.87125760316848699</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.90360939502715998</c:v>
+                  <c:v>0.81588166952133101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89374655485153198</c:v>
+                  <c:v>0.91979348659515303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86021691560745195</c:v>
+                  <c:v>0.93865478038787797</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.02404236793518</c:v>
+                  <c:v>0.93952149152755704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.07192611694335</c:v>
+                  <c:v>1.01625776290893</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0520764589309599</c:v>
+                  <c:v>0.99206095933914096</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.11747658252716</c:v>
+                  <c:v>1.1204960346221899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.21312379837036</c:v>
+                  <c:v>1.0177700519561701</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.07383155822753</c:v>
+                  <c:v>1.08814620971679</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0985939502716</c:v>
+                  <c:v>1.08238685131073</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.30935502052307</c:v>
+                  <c:v>1.0453073978423999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.26976907253265</c:v>
+                  <c:v>1.08892381191253</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1926698684692301</c:v>
+                  <c:v>1.155566573143</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2271820306777901</c:v>
+                  <c:v>1.11635041236877</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1985548734664899</c:v>
+                  <c:v>1.3286565542221001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.32044696807861</c:v>
+                  <c:v>1.1286327838897701</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2390478849411</c:v>
+                  <c:v>1.18534290790557</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2842229604721001</c:v>
+                  <c:v>1.1635785102844201</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.25744593143463</c:v>
+                  <c:v>1.17998754978179</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.33398342132568</c:v>
+                  <c:v>1.2304557561874301</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.43848228454589</c:v>
+                  <c:v>1.1707681417465201</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3371042013168299</c:v>
+                  <c:v>1.2319859266281099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4839569330215401</c:v>
+                  <c:v>1.2586758136749201</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.36904740333557</c:v>
+                  <c:v>1.23450219631195</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.30364978313446</c:v>
+                  <c:v>1.2699840068817101</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3284877538680999</c:v>
+                  <c:v>1.2515525817871</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.31461489200592</c:v>
+                  <c:v>1.3342319726943901</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.4406701326370199</c:v>
+                  <c:v>1.2836710214614799</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4269558191299401</c:v>
+                  <c:v>1.32959067821502</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2998116016387899</c:v>
+                  <c:v>1.2359658479690501</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4309495687484699</c:v>
+                  <c:v>1.2880555391311601</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.45137250423431</c:v>
+                  <c:v>1.3686180114746</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3807514905929501</c:v>
+                  <c:v>1.3341264724731401</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4424237012863099</c:v>
+                  <c:v>1.24835228919982</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.5284285545349099</c:v>
+                  <c:v>1.3965829610824501</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.35164487361907</c:v>
+                  <c:v>1.35116899013519</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.40019559860229</c:v>
+                  <c:v>1.2092802524566599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.45734810829162</c:v>
+                  <c:v>1.3078854084014799</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.3606103658676101</c:v>
+                  <c:v>1.4358165264129601</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4130668640136701</c:v>
+                  <c:v>1.24229955673217</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.52864277362823</c:v>
+                  <c:v>1.3189842700958201</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.47096836566925</c:v>
+                  <c:v>1.460986495018</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5141015052795399</c:v>
+                  <c:v>1.5189119577407799</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5114623308181701</c:v>
+                  <c:v>1.4200307130813501</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4550656080245901</c:v>
+                  <c:v>1.2934267520904501</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.4452763795852599</c:v>
+                  <c:v>1.38972520828247</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.4957580566406199</c:v>
+                  <c:v>1.41299796104431</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.4363270998001001</c:v>
+                  <c:v>1.5935090780258101</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.45295786857604</c:v>
+                  <c:v>1.45868408679962</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.46447730064392</c:v>
+                  <c:v>1.4888916015625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.4504148960113501</c:v>
+                  <c:v>1.40688920021057</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5135743618011399</c:v>
+                  <c:v>1.4755486249923699</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.4904204607009801</c:v>
+                  <c:v>1.3486427068710301</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6984946727752599</c:v>
+                  <c:v>1.45811283588409</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4474651813507</c:v>
+                  <c:v>1.3755478858947701</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.53601038455963</c:v>
+                  <c:v>1.4442015886306701</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.5362848043441699</c:v>
+                  <c:v>1.52973532676696</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.56414198875427</c:v>
+                  <c:v>1.45169961452484</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.6759574413299501</c:v>
+                  <c:v>1.3350476026535001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.41181433200836</c:v>
+                  <c:v>1.47153627872467</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.4512687921523999</c:v>
+                  <c:v>1.35212934017181</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.5819163322448699</c:v>
+                  <c:v>1.46810555458068</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.70410239696502</c:v>
+                  <c:v>1.40911304950714</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.4842013120651201</c:v>
+                  <c:v>1.49821424484252</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.65647888183593</c:v>
+                  <c:v>1.4087101221084499</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.6888464689254701</c:v>
+                  <c:v>1.52908134460449</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.7098363637924101</c:v>
+                  <c:v>1.4641541242599401</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7270091772079399</c:v>
+                  <c:v>1.56628930568695</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.74181485176086</c:v>
+                  <c:v>1.5496968030929501</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.7546740770339899</c:v>
+                  <c:v>1.4058423042297301</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.76632344722747</c:v>
+                  <c:v>1.4879580736160201</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.7768408060073799</c:v>
+                  <c:v>1.5657818317413299</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.78644824028015</c:v>
+                  <c:v>1.5865789651870701</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.79537045955657</c:v>
+                  <c:v>1.60286021232604</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.80368864536285</c:v>
+                  <c:v>1.61619961261749</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.81144642829895</c:v>
+                  <c:v>1.6277310848236</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.81873714923858</c:v>
+                  <c:v>1.63794565200805</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.82564568519592</c:v>
+                  <c:v>1.64716231822967</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8321557044982899</c:v>
+                  <c:v>1.65579414367675</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.83831167221069</c:v>
+                  <c:v>1.6635372638702299</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8441743850707999</c:v>
+                  <c:v>1.6708613634109399</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.84979784488677</c:v>
+                  <c:v>1.6776915788650499</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.85517537593841</c:v>
+                  <c:v>1.68411540985107</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.8603605031967101</c:v>
+                  <c:v>1.69019711017608</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.86530017852783</c:v>
+                  <c:v>1.69587361812591</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.87006080150604</c:v>
+                  <c:v>1.7013034820556601</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.8746132850646899</c:v>
+                  <c:v>1.7064894437789899</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.8790525197982699</c:v>
+                  <c:v>1.7114168405532799</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8833084106445299</c:v>
+                  <c:v>1.7161402702331501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10806,253 +10806,253 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.246000006794929</c:v>
+                  <c:v>0.26442000269889798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43878000974655101</c:v>
+                  <c:v>0.46270000934600802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.533980011940002</c:v>
+                  <c:v>0.58006000518798795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62370002269744795</c:v>
+                  <c:v>0.661660015583038</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69117999076843195</c:v>
+                  <c:v>0.71723997592926003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74312001466751099</c:v>
+                  <c:v>0.77187997102737405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78504002094268799</c:v>
+                  <c:v>0.80743998289108199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82209998369216897</c:v>
+                  <c:v>0.84017997980117798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85456001758575395</c:v>
+                  <c:v>0.86912000179290705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87849998474121005</c:v>
+                  <c:v>0.89591997861862105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90508002042770297</c:v>
+                  <c:v>0.914719998836517</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92221999168395996</c:v>
+                  <c:v>0.93029999732971103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.936259984970092</c:v>
+                  <c:v>0.94139999151229803</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94792002439498901</c:v>
+                  <c:v>0.95476001501083296</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95770001411437899</c:v>
+                  <c:v>0.96167999505996704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96613997220992998</c:v>
+                  <c:v>0.96899998188018799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97134000062942505</c:v>
+                  <c:v>0.97158002853393499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97158002853393499</c:v>
+                  <c:v>0.97585999965667702</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97820001840591397</c:v>
+                  <c:v>0.97794002294540405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98040002584457397</c:v>
+                  <c:v>0.98145997524261397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98313999176025302</c:v>
+                  <c:v>0.98427999019622803</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98676002025604204</c:v>
+                  <c:v>0.98378002643585205</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98533999919891302</c:v>
+                  <c:v>0.98835998773574796</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98640000820159901</c:v>
+                  <c:v>0.98963999748229903</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.98827999830245905</c:v>
+                  <c:v>0.988039970397949</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.98816001415252597</c:v>
+                  <c:v>0.99059998989105202</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99026000499725297</c:v>
+                  <c:v>0.98953998088836603</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99089998006820601</c:v>
+                  <c:v>0.99294000864028897</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99216002225875799</c:v>
+                  <c:v>0.99250000715255704</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99224001169204701</c:v>
+                  <c:v>0.99137997627258301</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99365997314453103</c:v>
+                  <c:v>0.99295997619628895</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99430000782012895</c:v>
+                  <c:v>0.99221998453140203</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.99150002002715998</c:v>
+                  <c:v>0.99453997611999501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99545997381210305</c:v>
+                  <c:v>0.993300020694732</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99375998973846402</c:v>
+                  <c:v>0.99353998899459794</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99279999732971103</c:v>
+                  <c:v>0.99514001607894897</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99514001607894897</c:v>
+                  <c:v>0.99405997991561801</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99572002887725797</c:v>
+                  <c:v>0.99639999866485596</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.99585998058319003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.99599999189376798</c:v>
+                  <c:v>0.99533998966216997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.99312001466751099</c:v>
+                  <c:v>0.99479997158050504</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.996840000152587</c:v>
+                  <c:v>0.99580001831054599</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99681997299194303</c:v>
+                  <c:v>0.99791997671127297</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99481999874114901</c:v>
+                  <c:v>0.99651998281478804</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99665999412536599</c:v>
+                  <c:v>0.99572002887725797</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99695998430251997</c:v>
+                  <c:v>0.998179972171783</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99518001079559304</c:v>
+                  <c:v>0.99659997224807695</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99614000320434504</c:v>
+                  <c:v>0.995980024337768</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99620002508163397</c:v>
+                  <c:v>0.99647998809814398</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99655997753143299</c:v>
+                  <c:v>0.99713999032974199</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.99728000164031905</c:v>
+                  <c:v>0.99639999866485596</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.996940016746521</c:v>
+                  <c:v>0.99764001369476296</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99620002508163397</c:v>
+                  <c:v>0.99867999553680398</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99786001443862904</c:v>
+                  <c:v>0.99930000305175704</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>0.99765998125076205</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99625998735427801</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99706000089645297</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99797999858856201</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99910002946853604</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>0.99720001220703103</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.99686002731323198</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.99629998207092196</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.996940016746521</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.99621999263763406</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.99716001749038696</c:v>
-                </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99706000089645297</c:v>
+                  <c:v>0.99713999032974199</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.99772000312805098</c:v>
+                  <c:v>0.99746000766754095</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99839997291564897</c:v>
+                  <c:v>0.99761998653411799</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99926000833511297</c:v>
+                  <c:v>0.99813997745513905</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99897998571395796</c:v>
+                  <c:v>0.99761998653411799</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.99717998504638605</c:v>
+                  <c:v>0.99773997068405096</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99835997819900502</c:v>
+                  <c:v>0.99893999099731401</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99897998571395796</c:v>
+                  <c:v>0.99849998950958196</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.99834001064300504</c:v>
+                  <c:v>0.99800002574920599</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.998560011386871</c:v>
+                  <c:v>0.99676001071929898</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.99717998504638605</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99772000312805098</c:v>
+                  <c:v>0.99790000915527299</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99901998043060303</c:v>
+                  <c:v>0.99948000907897905</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99853998422622603</c:v>
+                  <c:v>0.99919998645782404</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99791997671127297</c:v>
+                  <c:v>0.99915999174117998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99971997737884499</c:v>
+                  <c:v>0.998279988765716</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1</c:v>
+                  <c:v>0.99845999479293801</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1</c:v>
+                  <c:v>0.99830001592636097</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1</c:v>
+                  <c:v>0.99945998191833496</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1</c:v>
+                  <c:v>0.99897998571395796</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1</c:v>
+                  <c:v>0.99826002120971602</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1</c:v>
+                  <c:v>0.99953997135162298</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1</c:v>
+                  <c:v>0.99997997283935502</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1</c:v>
@@ -12504,304 +12504,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.36719998717308</c:v>
+                  <c:v>0.410699993371963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49680000543594299</c:v>
+                  <c:v>0.50279998779296797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57920002937316895</c:v>
+                  <c:v>0.60759997367858798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62010002136230402</c:v>
+                  <c:v>0.66769999265670699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68809998035430897</c:v>
+                  <c:v>0.70700001716613703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69459998607635498</c:v>
+                  <c:v>0.71909999847412098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71490001678466797</c:v>
+                  <c:v>0.75739997625350897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75010001659393299</c:v>
+                  <c:v>0.75510001182556097</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73930001258850098</c:v>
+                  <c:v>0.76099997758865301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74529999494552601</c:v>
+                  <c:v>0.76829999685287398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75429999828338601</c:v>
+                  <c:v>0.74849998950958196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75529998540878296</c:v>
+                  <c:v>0.77079999446868896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.763499975204467</c:v>
+                  <c:v>0.77660000324249201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.76169997453689497</c:v>
+                  <c:v>0.76749998331069902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.75709998607635498</c:v>
+                  <c:v>0.77340000867843595</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.75639998912811202</c:v>
+                  <c:v>0.77730000019073398</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.75999999046325595</c:v>
+                  <c:v>0.78700000047683705</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.76579999923705999</c:v>
+                  <c:v>0.77700001001357999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.75279998779296797</c:v>
+                  <c:v>0.78939998149871804</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.774500012397766</c:v>
+                  <c:v>0.78500002622604304</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.763300001621246</c:v>
+                  <c:v>0.78439998626708896</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.77120000123977595</c:v>
+                  <c:v>0.78020000457763605</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.75620001554489102</c:v>
+                  <c:v>0.78769999742507901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.77549999952316195</c:v>
+                  <c:v>0.78369998931884699</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.77050000429153398</c:v>
+                  <c:v>0.78829997777938798</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.77880001068115201</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.76940000057220403</c:v>
+                  <c:v>0.78149998188018799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.77310001850128096</c:v>
+                  <c:v>0.78839999437332098</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.77490001916885298</c:v>
+                  <c:v>0.78939998149871804</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.78320002555847101</c:v>
+                  <c:v>0.77609997987747104</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.77969998121261597</c:v>
+                  <c:v>0.79079997539520197</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.778999984264373</c:v>
+                  <c:v>0.79390001296997004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.77810001373291005</c:v>
+                  <c:v>0.79210001230239802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.77189999818801802</c:v>
+                  <c:v>0.79140001535415605</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.77710002660751298</c:v>
+                  <c:v>0.78869998455047596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.78200000524520796</c:v>
+                  <c:v>0.79360002279281605</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.78700000047683705</c:v>
+                  <c:v>0.78930002450942904</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.776700019836425</c:v>
+                  <c:v>0.796800017356872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.78140002489089899</c:v>
+                  <c:v>0.78710001707077004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.77259999513626099</c:v>
+                  <c:v>0.79710000753402699</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.77369999885559004</c:v>
+                  <c:v>0.79809999465942305</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.78229999542236295</c:v>
+                  <c:v>0.78609997034072798</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.77189999818801802</c:v>
+                  <c:v>0.78490000963211004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.77649998664855902</c:v>
+                  <c:v>0.79479998350143399</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.78149998188018799</c:v>
+                  <c:v>0.80229997634887695</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.779100000858306</c:v>
+                  <c:v>0.80250000953674305</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.78560000658035201</c:v>
+                  <c:v>0.78969997167587203</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.77270001173019398</c:v>
+                  <c:v>0.79329997301101596</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.776799976825714</c:v>
+                  <c:v>0.79199999570846502</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.78219997882842995</c:v>
+                  <c:v>0.79079997539520197</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.778999984264373</c:v>
+                  <c:v>0.79290002584457397</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.77780002355575495</c:v>
+                  <c:v>0.79610002040863004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.78289997577667203</c:v>
+                  <c:v>0.80159997940063399</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.77840000391006403</c:v>
+                  <c:v>0.79930001497268599</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.77759999036788896</c:v>
+                  <c:v>0.79479998350143399</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.78030002117156905</c:v>
+                  <c:v>0.79430001974105802</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.77920001745223999</c:v>
+                  <c:v>0.79850000143051103</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.78200000524520796</c:v>
+                  <c:v>0.79689997434616</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.77270001173019398</c:v>
+                  <c:v>0.79530000686645497</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.78140002489089899</c:v>
+                  <c:v>0.79409998655319203</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.78930002450942904</c:v>
+                  <c:v>0.79589998722076405</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.785799980163574</c:v>
+                  <c:v>0.79710000753402699</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.78740000724792403</c:v>
+                  <c:v>0.79739999771118097</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.78829997777938798</c:v>
+                  <c:v>0.79689997434616</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.77990001440048196</c:v>
+                  <c:v>0.80070000886917103</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.78109997510910001</c:v>
+                  <c:v>0.794600009918212</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.78740000724792403</c:v>
+                  <c:v>0.80099999904632502</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.783599972724914</c:v>
+                  <c:v>0.79540002346038796</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.7878999710083</c:v>
+                  <c:v>0.79149997234344405</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.79500001668929998</c:v>
+                  <c:v>0.78969997167587203</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.78079998493194502</c:v>
+                  <c:v>0.79070001840591397</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.77920001745223999</c:v>
+                  <c:v>0.80110001564025801</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.78549998998641901</c:v>
+                  <c:v>0.80669999122619596</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.78090000152587802</c:v>
+                  <c:v>0.79879999160766602</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.78860002756118697</c:v>
+                  <c:v>0.80199998617172197</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.79360002279281605</c:v>
+                  <c:v>0.80000001192092896</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.79479998350143399</c:v>
+                  <c:v>0.79540002346038796</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.79479998350143399</c:v>
+                  <c:v>0.801400005817413</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.79509997367858798</c:v>
+                  <c:v>0.80030000209808305</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.79500001668929998</c:v>
+                  <c:v>0.79100000858306796</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.79500001668929998</c:v>
+                  <c:v>0.79790002107620195</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.79530000686645497</c:v>
+                  <c:v>0.80339998006820601</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.79559999704360895</c:v>
+                  <c:v>0.80540001392364502</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.79559999704360895</c:v>
+                  <c:v>0.805899977684021</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.79570001363754195</c:v>
+                  <c:v>0.80629998445510798</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.79600000381469704</c:v>
+                  <c:v>0.80669999122619596</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.79589998722076405</c:v>
+                  <c:v>0.80690002441406194</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.79600000381469704</c:v>
+                  <c:v>0.80709999799728305</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.79600000381469704</c:v>
+                  <c:v>0.80720001459121704</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.79600000381469704</c:v>
+                  <c:v>0.80739998817443803</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.79610002040863004</c:v>
+                  <c:v>0.80750000476837103</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.79600000381469704</c:v>
+                  <c:v>0.80790001153945901</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.79619997739791804</c:v>
+                  <c:v>0.80809998512268</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.79610002040863004</c:v>
+                  <c:v>0.80820000171661299</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.79610002040863004</c:v>
+                  <c:v>0.80820000171661299</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.79610002040863004</c:v>
+                  <c:v>0.80839997529983498</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.79610002040863004</c:v>
+                  <c:v>0.80849999189376798</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.79619997739791804</c:v>
+                  <c:v>0.80849999189376798</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.79619997739791804</c:v>
+                  <c:v>0.80849999189376798</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.79629999399185103</c:v>
+                  <c:v>0.80860000848770097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18395,16 +18395,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18813,8 +18813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18879,16 +18879,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.0483366250991799</v>
+        <v>0.63436037302017201</v>
       </c>
       <c r="C3">
-        <v>0.63866668939590399</v>
+        <v>0.78485000133514404</v>
       </c>
       <c r="D3">
-        <v>0.116397403180599</v>
+        <v>5.50789907574653E-2</v>
       </c>
       <c r="E3">
-        <v>0.96380001306533802</v>
+        <v>0.98150002956390303</v>
       </c>
       <c r="F3">
         <v>0.45785588026046697</v>
@@ -18908,16 +18908,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.4910199046134893E-2</v>
+        <v>5.9533160179853398E-2</v>
       </c>
       <c r="C4">
-        <v>0.97483330965042103</v>
+        <v>0.98193335533142001</v>
       </c>
       <c r="D4">
-        <v>9.37364771962165E-2</v>
+        <v>4.5279055833816501E-2</v>
       </c>
       <c r="E4">
-        <v>0.97380000352859497</v>
+        <v>0.98689997196197499</v>
       </c>
       <c r="F4">
         <v>7.5052514672279302E-2</v>
@@ -18937,16 +18937,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.5079430341720498E-2</v>
+        <v>3.8917817175388301E-2</v>
       </c>
       <c r="C5">
-        <v>0.98329997062683105</v>
+        <v>0.98799997568130404</v>
       </c>
       <c r="D5">
-        <v>3.4780986607074703E-2</v>
+        <v>3.4523531794548E-2</v>
       </c>
       <c r="E5">
-        <v>0.98930001258850098</v>
+        <v>0.98820000886917103</v>
       </c>
       <c r="F5">
         <v>5.0581242889165802E-2</v>
@@ -18966,16 +18966,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.17070798575878E-2</v>
+        <v>2.4025645107030799E-2</v>
       </c>
       <c r="C6">
-        <v>0.98780000209808305</v>
+        <v>0.99273335933685303</v>
       </c>
       <c r="D6">
-        <v>3.9133302867412498E-2</v>
+        <v>3.0614947900176E-2</v>
       </c>
       <c r="E6">
-        <v>0.98839998245239202</v>
+        <v>0.99010002613067605</v>
       </c>
       <c r="F6">
         <v>3.8131669163703898E-2</v>
@@ -18995,16 +18995,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.0426137149333898E-2</v>
+        <v>1.73030234873294E-2</v>
       </c>
       <c r="C7">
-        <v>0.99093335866928101</v>
+        <v>0.99458330869674605</v>
       </c>
       <c r="D7">
-        <v>4.28715422749519E-2</v>
+        <v>3.1521838158369002E-2</v>
       </c>
       <c r="E7">
-        <v>0.986500024795532</v>
+        <v>0.99029999971389704</v>
       </c>
       <c r="F7">
         <v>3.1018167734146101E-2</v>
@@ -19024,16 +19024,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.56824735552072E-2</v>
+        <v>1.61436721682548E-2</v>
       </c>
       <c r="C8">
-        <v>0.99221664667129505</v>
+        <v>0.99475002288818304</v>
       </c>
       <c r="D8">
-        <v>2.80387550592422E-2</v>
+        <v>2.6616912335157301E-2</v>
       </c>
       <c r="E8">
-        <v>0.99080002307891801</v>
+        <v>0.99150002002715998</v>
       </c>
       <c r="F8">
         <v>2.5646137073635999E-2</v>
@@ -19053,16 +19053,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.0023293793201401E-2</v>
+        <v>1.10499104484915E-2</v>
       </c>
       <c r="C9">
-        <v>0.99390000104904097</v>
+        <v>0.99655002355575495</v>
       </c>
       <c r="D9">
-        <v>3.1865730881690903E-2</v>
+        <v>2.7183733880519801E-2</v>
       </c>
       <c r="E9">
-        <v>0.991100013256073</v>
+        <v>0.99220001697540205</v>
       </c>
       <c r="F9">
         <v>2.26541105657815E-2</v>
@@ -19082,16 +19082,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.3592849485576101E-2</v>
+        <v>9.7873425111174497E-3</v>
       </c>
       <c r="C10">
-        <v>0.99593335390090898</v>
+        <v>0.99701666831970204</v>
       </c>
       <c r="D10">
-        <v>2.3660767823457701E-2</v>
+        <v>2.3735119029879501E-2</v>
       </c>
       <c r="E10">
-        <v>0.99220001697540205</v>
+        <v>0.99379998445510798</v>
       </c>
       <c r="F10">
         <v>2.02963221818208E-2</v>
@@ -19111,16 +19111,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.4012302272021699E-2</v>
+        <v>6.3539273105561699E-3</v>
       </c>
       <c r="C11">
-        <v>0.99568331241607599</v>
+        <v>0.99808335304260198</v>
       </c>
       <c r="D11">
-        <v>2.81601585447788E-2</v>
+        <v>2.5585098192095701E-2</v>
       </c>
       <c r="E11">
-        <v>0.990999996662139</v>
+        <v>0.99309998750686601</v>
       </c>
       <c r="F11">
         <v>1.85173172503709E-2</v>
@@ -19140,13 +19140,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.0506912134587701E-2</v>
+        <v>7.4138590134680202E-3</v>
       </c>
       <c r="C12">
-        <v>0.99656665325164795</v>
+        <v>0.99758332967758101</v>
       </c>
       <c r="D12">
-        <v>2.7126941829919801E-2</v>
+        <v>2.3879224434494899E-2</v>
       </c>
       <c r="E12">
         <v>0.99299997091293302</v>
@@ -19169,16 +19169,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.8092602565884503E-3</v>
+        <v>4.4658235274255198E-3</v>
       </c>
       <c r="C13">
-        <v>0.99678331613540605</v>
+        <v>0.99853330850601196</v>
       </c>
       <c r="D13">
-        <v>2.4502135813236198E-2</v>
+        <v>3.4960631281137397E-2</v>
       </c>
       <c r="E13">
-        <v>0.993300020694732</v>
+        <v>0.991100013256073</v>
       </c>
       <c r="F13">
         <v>1.56254786998033E-2</v>
@@ -19198,16 +19198,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.01500274613499E-2</v>
+        <v>6.1606983654200996E-3</v>
       </c>
       <c r="C14">
-        <v>0.99696666002273504</v>
+        <v>0.99800002574920599</v>
       </c>
       <c r="D14">
-        <v>4.51136827468872E-2</v>
+        <v>2.1975193172693201E-2</v>
       </c>
       <c r="E14">
-        <v>0.98909997940063399</v>
+        <v>0.99379998445510798</v>
       </c>
       <c r="F14">
         <v>1.34617518633604E-2</v>
@@ -19227,16 +19227,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.1515340134501405E-3</v>
+        <v>3.3605124335736002E-3</v>
       </c>
       <c r="C15">
-        <v>0.99725002050399703</v>
+        <v>0.99903333187103205</v>
       </c>
       <c r="D15">
-        <v>3.2315008342265999E-2</v>
+        <v>2.2218972444534298E-2</v>
       </c>
       <c r="E15">
-        <v>0.99059998989105202</v>
+        <v>0.99449998140335005</v>
       </c>
       <c r="F15">
         <v>1.29017205908894E-2</v>
@@ -19256,16 +19256,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.4660779684781994E-3</v>
+        <v>1.38359854463487E-3</v>
       </c>
       <c r="C16">
-        <v>0.99716669321060103</v>
+        <v>0.99949997663497903</v>
       </c>
       <c r="D16">
-        <v>2.3152867332100799E-2</v>
+        <v>2.6815289631485901E-2</v>
       </c>
       <c r="E16">
-        <v>0.99379998445510798</v>
+        <v>0.99309998750686601</v>
       </c>
       <c r="F16">
         <v>1.2259190902113901E-2</v>
@@ -19285,16 +19285,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.0766835920512598E-3</v>
+        <v>4.7235752572305501E-4</v>
       </c>
       <c r="C17">
-        <v>0.99848335981368996</v>
+        <v>0.99983334541320801</v>
       </c>
       <c r="D17">
-        <v>3.6017995327711098E-2</v>
+        <v>2.9610702767968101E-2</v>
       </c>
       <c r="E17">
-        <v>0.99190002679824796</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F17">
         <v>1.25329131260514E-2</v>
@@ -19314,16 +19314,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.2254595793783604E-3</v>
+        <v>5.69055613595992E-4</v>
       </c>
       <c r="C18">
-        <v>0.99841666221618597</v>
+        <v>0.99983334541320801</v>
       </c>
       <c r="D18">
-        <v>4.2816080152988399E-2</v>
+        <v>2.9289618134498499E-2</v>
       </c>
       <c r="E18">
-        <v>0.98970001935958796</v>
+        <v>0.993399977684021</v>
       </c>
       <c r="F18">
         <v>1.07574863359332E-2</v>
@@ -19342,17 +19342,17 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>4.4215009547769997E-3</v>
+      <c r="B19" s="12">
+        <v>6.0762027715099901E-5</v>
       </c>
       <c r="C19">
-        <v>0.99873334169387795</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>3.0723491683602298E-2</v>
+        <v>2.9819900169968602E-2</v>
       </c>
       <c r="E19">
-        <v>0.99210000038146895</v>
+        <v>0.99390000104904097</v>
       </c>
       <c r="F19">
         <v>1.16013428196311E-2</v>
@@ -19371,17 +19371,17 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>2.8461946640163599E-3</v>
+      <c r="B20" s="12">
+        <v>1.6637412045383799E-5</v>
       </c>
       <c r="C20">
-        <v>0.99916666746139504</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>3.0994214117527001E-2</v>
+        <v>3.0942490324378E-2</v>
       </c>
       <c r="E20">
-        <v>0.99190002679824796</v>
+        <v>0.99379998445510798</v>
       </c>
       <c r="F20">
         <v>8.8541675359010696E-3</v>
@@ -19400,17 +19400,17 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>5.5212900042533796E-3</v>
+      <c r="B21" s="12">
+        <v>1.1345578968757701E-5</v>
       </c>
       <c r="C21">
-        <v>0.99833333492278997</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>5.6742463260888998E-2</v>
+        <v>3.1741559505462598E-2</v>
       </c>
       <c r="E21">
-        <v>0.98820000886917103</v>
+        <v>0.99379998445510798</v>
       </c>
       <c r="F21">
         <v>8.6304703727364505E-3</v>
@@ -19429,17 +19429,17 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>5.0570825114846204E-3</v>
+      <c r="B22" s="12">
+        <v>8.7959342636168003E-6</v>
       </c>
       <c r="C22">
-        <v>0.99830001592636097</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2.7588723227381699E-2</v>
+        <v>3.2383613288402502E-2</v>
       </c>
       <c r="E22">
-        <v>0.99279999732971103</v>
+        <v>0.99379998445510798</v>
       </c>
       <c r="F22">
         <v>1.05516407638788E-2</v>
@@ -19458,17 +19458,17 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>2.9222688172012498E-3</v>
+      <c r="B23" s="12">
+        <v>7.1805452535045299E-6</v>
       </c>
       <c r="C23">
-        <v>0.99910002946853604</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>3.1325768679380403E-2</v>
+        <v>3.29000949859619E-2</v>
       </c>
       <c r="E23">
-        <v>0.99269998073577803</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F23">
         <v>9.8824268206954002E-3</v>
@@ -19487,17 +19487,17 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>2.6148515753448001E-3</v>
+      <c r="B24" s="12">
+        <v>6.05790273766615E-6</v>
       </c>
       <c r="C24">
-        <v>0.99906665086746205</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2.5907602161169E-2</v>
+        <v>3.3347584307193701E-2</v>
       </c>
       <c r="E24">
-        <v>0.993399977684021</v>
+        <v>0.99379998445510798</v>
       </c>
       <c r="F24">
         <v>6.7186080850660801E-3</v>
@@ -19516,17 +19516,17 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.80226529482752E-3</v>
+      <c r="B25" s="12">
+        <v>5.2451332521741202E-6</v>
       </c>
       <c r="C25">
-        <v>0.99940001964569003</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>3.0810741707682599E-2</v>
+        <v>3.3744160085916498E-2</v>
       </c>
       <c r="E25">
-        <v>0.99290001392364502</v>
+        <v>0.99379998445510798</v>
       </c>
       <c r="F25">
         <v>7.2059896774589998E-3</v>
@@ -19545,17 +19545,17 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>5.8466085465624896E-4</v>
+      <c r="B26" s="12">
+        <v>4.6081572691036803E-6</v>
       </c>
       <c r="C26">
-        <v>0.99983334541320801</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2.90041137486696E-2</v>
+        <v>3.4081328660249703E-2</v>
       </c>
       <c r="E26">
-        <v>0.99370002746581998</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F26">
         <v>6.4681279473006699E-3</v>
@@ -19574,17 +19574,17 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1.7744139768183201E-3</v>
+      <c r="B27" s="12">
+        <v>4.1093949221249204E-6</v>
       </c>
       <c r="C27">
-        <v>0.99954998493194502</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>4.3555878102779298E-2</v>
+        <v>3.4397006034850998E-2</v>
       </c>
       <c r="E27">
-        <v>0.99040001630783003</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F27">
         <v>5.4791108705103397E-3</v>
@@ -19603,17 +19603,17 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>5.08275907486677E-3</v>
+      <c r="B28" s="12">
+        <v>3.69607300854113E-6</v>
       </c>
       <c r="C28">
-        <v>0.99826663732528598</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>3.0372366309165899E-2</v>
+        <v>3.4697275608778E-2</v>
       </c>
       <c r="E28">
-        <v>0.99299997091293302</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F28">
         <v>6.8313381634652597E-3</v>
@@ -19632,17 +19632,17 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>3.5756579600274502E-3</v>
+      <c r="B29" s="12">
+        <v>3.3639300909271599E-6</v>
       </c>
       <c r="C29">
-        <v>0.99865001440048196</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>4.23501878976821E-2</v>
+        <v>3.49577516317367E-2</v>
       </c>
       <c r="E29">
-        <v>0.99279999732971103</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F29">
         <v>5.5035427212715097E-3</v>
@@ -19661,17 +19661,17 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>2.2966451942920598E-3</v>
+      <c r="B30" s="12">
+        <v>3.0805788355792098E-6</v>
       </c>
       <c r="C30">
-        <v>0.99919998645782404</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>4.4272869825363097E-2</v>
+        <v>3.5214491188526098E-2</v>
       </c>
       <c r="E30">
-        <v>0.99140000343322698</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F30">
         <v>5.5707795545458698E-3</v>
@@ -19690,17 +19690,17 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>2.0595758687704802E-3</v>
+      <c r="B31" s="12">
+        <v>2.8416727673175E-6</v>
       </c>
       <c r="C31">
-        <v>0.99945002794265703</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>3.3682301640510497E-2</v>
+        <v>3.54548692703247E-2</v>
       </c>
       <c r="E31">
-        <v>0.99370002746581998</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F31">
         <v>7.2121042758226299E-3</v>
@@ -19719,17 +19719,17 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>2.4610026739537699E-3</v>
+      <c r="B32" s="12">
+        <v>2.6345765036239699E-6</v>
       </c>
       <c r="C32">
-        <v>0.99910002946853604</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>3.0013235285878102E-2</v>
+        <v>3.5671319812536198E-2</v>
       </c>
       <c r="E32">
-        <v>0.99269998073577803</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F32">
         <v>3.532734233886E-3</v>
@@ -19748,17 +19748,17 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>8.2293921150267102E-4</v>
+      <c r="B33" s="12">
+        <v>2.4512694380973699E-6</v>
       </c>
       <c r="C33">
-        <v>0.99978333711624101</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>3.6631710827350603E-2</v>
+        <v>3.5866111516952501E-2</v>
       </c>
       <c r="E33">
-        <v>0.99269998073577803</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F33">
         <v>5.0026942044496502E-3</v>
@@ -19777,17 +19777,17 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>1.9440505420789101E-3</v>
+      <c r="B34" s="12">
+        <v>2.2944657303014499E-6</v>
       </c>
       <c r="C34">
-        <v>0.99940001964569003</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>3.5660978406667702E-2</v>
+        <v>3.6066841334104503E-2</v>
       </c>
       <c r="E34">
-        <v>0.99190002679824796</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F34">
         <v>3.2404223456978798E-3</v>
@@ -19806,14 +19806,14 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>2.4071533698588601E-3</v>
+      <c r="B35" s="12">
+        <v>2.1565006136370302E-6</v>
       </c>
       <c r="C35">
-        <v>0.99945002794265703</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>3.1403828412294298E-2</v>
+        <v>3.6249741911888102E-2</v>
       </c>
       <c r="E35">
         <v>0.99360001087188698</v>
@@ -19835,17 +19835,17 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>4.7654312220402002E-4</v>
+      <c r="B36" s="12">
+        <v>2.0309244064264901E-6</v>
       </c>
       <c r="C36">
-        <v>0.99981665611267001</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>4.0055889636278097E-2</v>
+        <v>3.6421410739421803E-2</v>
       </c>
       <c r="E36">
-        <v>0.99370002746581998</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F36">
         <v>4.5088673941790997E-3</v>
@@ -19865,16 +19865,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="12">
-        <v>4.5073560613673099E-5</v>
+        <v>1.9192366380593701E-6</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>3.4797135740518501E-2</v>
+        <v>3.6584753543138497E-2</v>
       </c>
       <c r="E37">
-        <v>0.99390000104904097</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F37">
         <v>7.3376293294131704E-3</v>
@@ -19894,16 +19894,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="12">
-        <v>9.8290565802017193E-6</v>
+        <v>1.81917903319117E-6</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>3.5215098410844803E-2</v>
+        <v>3.6753412336110999E-2</v>
       </c>
       <c r="E38">
-        <v>0.99409997463226296</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F38">
         <v>5.7469648309051904E-3</v>
@@ -19923,16 +19923,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="12">
-        <v>6.5030799305532102E-6</v>
+        <v>1.73203773101704E-6</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>3.5479534417390803E-2</v>
+        <v>3.6896027624607003E-2</v>
       </c>
       <c r="E39">
-        <v>0.99400001764297397</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F39">
         <v>2.7879250701516802E-3</v>
@@ -19952,16 +19952,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="12">
-        <v>5.2769050853385099E-6</v>
+        <v>1.6467132581965401E-6</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>3.57412099838256E-2</v>
+        <v>3.7040565162897103E-2</v>
       </c>
       <c r="E40">
-        <v>0.99400001764297397</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F40">
         <v>5.6155477650463503E-3</v>
@@ -19981,16 +19981,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="12">
-        <v>4.4906291805091297E-6</v>
+        <v>1.5714955452494899E-6</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>3.5953819751739502E-2</v>
+        <v>3.7185214459895997E-2</v>
       </c>
       <c r="E41">
-        <v>0.99400001764297397</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F41">
         <v>3.2019405625760499E-3</v>
@@ -20010,16 +20010,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="12">
-        <v>3.9233509596670004E-6</v>
+        <v>1.5029149835754601E-6</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>3.6127325147390303E-2</v>
+        <v>3.7318475544452598E-2</v>
       </c>
       <c r="E42">
-        <v>0.99409997463226296</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F42">
         <v>4.6708863228559399E-3</v>
@@ -20039,16 +20039,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="12">
-        <v>3.4916747608804102E-6</v>
+        <v>1.4393881428986701E-6</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>3.6313962191343301E-2</v>
+        <v>3.7444598972797297E-2</v>
       </c>
       <c r="E43">
-        <v>0.99409997463226296</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F43">
         <v>2.8298436664044801E-3</v>
@@ -20068,16 +20068,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="12">
-        <v>3.1502008823736101E-6</v>
+        <v>1.3817325452691799E-6</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>3.6485191434621797E-2</v>
+        <v>3.7568058818578699E-2</v>
       </c>
       <c r="E44">
-        <v>0.99419999122619596</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F44">
         <v>6.6154906526207898E-3</v>
@@ -20097,16 +20097,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="12">
-        <v>2.8704475880658699E-6</v>
+        <v>1.32734498947684E-6</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>3.6647710949182503E-2</v>
+        <v>3.7691667675971902E-2</v>
       </c>
       <c r="E45">
-        <v>0.99419999122619596</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F45">
         <v>3.3027748577296699E-3</v>
@@ -20126,16 +20126,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="12">
-        <v>2.63694596469576E-6</v>
+        <v>1.27737666844041E-6</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>3.6795414984226199E-2</v>
+        <v>3.7803318351507097E-2</v>
       </c>
       <c r="E46">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F46">
         <v>3.5986690782010499E-3</v>
@@ -20155,16 +20155,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="12">
-        <v>2.4383991785725799E-6</v>
+        <v>1.2314201285335E-6</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>3.6944940686225801E-2</v>
+        <v>3.7916477769613197E-2</v>
       </c>
       <c r="E47">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F47">
         <v>4.2403656989335996E-3</v>
@@ -20184,16 +20184,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="12">
-        <v>2.2689125671604398E-6</v>
+        <v>1.18789478165126E-6</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>3.7076305598020498E-2</v>
+        <v>3.8025680929422302E-2</v>
       </c>
       <c r="E48">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F48">
         <v>4.7321519814431598E-3</v>
@@ -20213,16 +20213,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="12">
-        <v>2.1212576939433301E-6</v>
+        <v>1.14664169359457E-6</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>3.7201005965471198E-2</v>
+        <v>3.8130961358547197E-2</v>
       </c>
       <c r="E49">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F49">
         <v>3.2549621537327701E-3</v>
@@ -20242,16 +20242,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="12">
-        <v>1.99031796910276E-6</v>
+        <v>1.10882933768152E-6</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>3.7320286035537699E-2</v>
+        <v>3.8234978914260802E-2</v>
       </c>
       <c r="E50">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F50">
         <v>2.9373916331678599E-3</v>
@@ -20271,16 +20271,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="12">
-        <v>1.8752812138700301E-6</v>
+        <v>1.0730402664194099E-6</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>3.7430800497531801E-2</v>
+        <v>3.8335833698511103E-2</v>
       </c>
       <c r="E51">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F51" s="12">
         <v>5.2653980674222098E-5</v>
@@ -20300,16 +20300,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="12">
-        <v>1.77257300038036E-6</v>
+        <v>1.0392774356659999E-6</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>3.7535421550273798E-2</v>
+        <v>3.8430735468864399E-2</v>
       </c>
       <c r="E52">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F52" s="12">
         <v>2.3658321879338401E-6</v>
@@ -20329,16 +20329,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="12">
-        <v>1.68137285072589E-6</v>
+        <v>1.0075416412291801E-6</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>3.7634134292602497E-2</v>
+        <v>3.8524344563484102E-2</v>
       </c>
       <c r="E53">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F53" s="12">
         <v>5.9962104614896795E-7</v>
@@ -20358,16 +20358,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="12">
-        <v>1.59846365477278E-6</v>
+        <v>9.7785243724501903E-7</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>3.7729937583208001E-2</v>
+        <v>3.8619592785835197E-2</v>
       </c>
       <c r="E54">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F54" s="12">
         <v>2.7205192054679998E-7</v>
@@ -20387,16 +20387,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="12">
-        <v>1.52283450916002E-6</v>
+        <v>9.49832326568866E-7</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>3.7820756435394197E-2</v>
+        <v>3.8709763437509502E-2</v>
       </c>
       <c r="E55">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F55" s="12">
         <v>1.53074196873603E-7</v>
@@ -20416,16 +20416,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="12">
-        <v>1.45484989388933E-6</v>
+        <v>9.2339695356713396E-7</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>3.79099808633327E-2</v>
+        <v>3.8795314729213701E-2</v>
       </c>
       <c r="E56">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F56" s="12">
         <v>9.4813550788330705E-8</v>
@@ -20445,16 +20445,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="12">
-        <v>1.39207656957296E-6</v>
+        <v>8.9818502146954405E-7</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>3.7995576858520501E-2</v>
+        <v>3.8881123065948403E-2</v>
       </c>
       <c r="E57">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F57" s="12">
         <v>6.3415200202143698E-8</v>
@@ -20474,16 +20474,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="12">
-        <v>1.3350920653465401E-6</v>
+        <v>8.7378776925106596E-7</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>3.8080155849456697E-2</v>
+        <v>3.8965795189142199E-2</v>
       </c>
       <c r="E58">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F58" s="12">
         <v>4.3954873518714501E-8</v>
@@ -20503,16 +20503,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="12">
-        <v>1.28209251215594E-6</v>
+        <v>8.5062839616512001E-7</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>3.8159508258104297E-2</v>
+        <v>3.90439592301845E-2</v>
       </c>
       <c r="E59">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F59" s="12">
         <v>3.1334462136101098E-8</v>
@@ -20532,16 +20532,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="12">
-        <v>1.2337980024312801E-6</v>
+        <v>8.2930370126632603E-7</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>3.8233146071434E-2</v>
+        <v>3.9123155176639501E-2</v>
       </c>
       <c r="E60">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F60" s="12">
         <v>2.3050189312812102E-8</v>
@@ -20561,16 +20561,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="12">
-        <v>1.1888510016433399E-6</v>
+        <v>8.0854289308263095E-7</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>3.83067429065704E-2</v>
+        <v>3.9198745042085599E-2</v>
       </c>
       <c r="E61">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F61" s="12">
         <v>1.7338503965902399E-8</v>
@@ -20590,16 +20590,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="12">
-        <v>1.14657234462356E-6</v>
+        <v>7.8911193668318404E-7</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>3.8376286625862101E-2</v>
+        <v>3.9274599403142901E-2</v>
       </c>
       <c r="E62">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F62" s="12">
         <v>1.3126640219240899E-8</v>
@@ -20619,16 +20619,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="12">
-        <v>1.1075946986238701E-6</v>
+        <v>7.7052635560903497E-7</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>3.8444172590970903E-2</v>
+        <v>3.9351183921098702E-2</v>
       </c>
       <c r="E63">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F63" s="12">
         <v>1.0200168709673099E-8</v>
@@ -20648,16 +20648,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="12">
-        <v>1.0711678442021301E-6</v>
+        <v>7.5213807804175303E-7</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>3.8506928831338799E-2</v>
+        <v>3.9422657340764999E-2</v>
       </c>
       <c r="E64">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F64" s="12">
         <v>8.0286417514230297E-9</v>
@@ -20677,16 +20677,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="12">
-        <v>1.0372799579272301E-6</v>
+        <v>7.3532254418751098E-7</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>3.8573596626520101E-2</v>
+        <v>3.9494059979915598E-2</v>
       </c>
       <c r="E65">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F65" s="12">
         <v>6.3617346945932199E-9</v>
@@ -20706,16 +20706,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="12">
-        <v>1.00497800303855E-6</v>
+        <v>7.1905122922544198E-7</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>3.8630586117505999E-2</v>
+        <v>3.9562959223985603E-2</v>
       </c>
       <c r="E66">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F66" s="12">
         <v>5.1160240488457004E-9</v>
@@ -20735,16 +20735,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="12">
-        <v>9.7479039595782503E-7</v>
+        <v>7.0305850385921002E-7</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>3.8693986833095502E-2</v>
+        <v>3.9631135761737803E-2</v>
       </c>
       <c r="E67">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F67" s="12">
         <v>4.1365346703514603E-9</v>
@@ -20764,16 +20764,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="12">
-        <v>9.4646583193025404E-7</v>
+        <v>6.8800522967649105E-7</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>3.8751982152461999E-2</v>
+        <v>3.9695762097835499E-2</v>
       </c>
       <c r="E68">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F68" s="12">
         <v>3.39943317939628E-9</v>
@@ -20793,16 +20793,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="12">
-        <v>9.1970855464751303E-7</v>
+        <v>6.7387713897914996E-7</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>3.8807373493909801E-2</v>
+        <v>3.9761833846568999E-2</v>
       </c>
       <c r="E69">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F69" s="12">
         <v>2.8153137598962898E-9</v>
@@ -20822,16 +20822,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="12">
-        <v>8.9452396423439495E-7</v>
+        <v>6.6001689447148195E-7</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>3.8861721754074097E-2</v>
+        <v>3.9826847612857798E-2</v>
       </c>
       <c r="E70">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F70" s="12">
         <v>2.3404669313720201E-9</v>
@@ -20851,16 +20851,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="12">
-        <v>8.7021442141121899E-7</v>
+        <v>6.4659985810067102E-7</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>3.8916237652301698E-2</v>
+        <v>3.9887432008981698E-2</v>
       </c>
       <c r="E71">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F71" s="12">
         <v>1.9450923094410601E-9</v>
@@ -20880,16 +20880,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="12">
-        <v>8.47411172344436E-7</v>
+        <v>6.3379354742210104E-7</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>3.8967937231063801E-2</v>
+        <v>3.9950422942638397E-2</v>
       </c>
       <c r="E72">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F72" s="12">
         <v>1.649057668196E-9</v>
@@ -20909,16 +20909,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="12">
-        <v>8.2567117942744496E-7</v>
+        <v>6.2168192016542804E-7</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>3.9018720388412399E-2</v>
+        <v>4.00108322501182E-2</v>
       </c>
       <c r="E73">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F73" s="12">
         <v>1.38282485462326E-9</v>
@@ -20938,16 +20938,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="12">
-        <v>8.0508181099503396E-7</v>
+        <v>6.0984200445091098E-7</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>3.90688553452491E-2</v>
+        <v>4.0070533752441399E-2</v>
       </c>
       <c r="E74">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F74" s="12">
         <v>1.1722226522792299E-9</v>
@@ -20967,16 +20967,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="12">
-        <v>7.8532889347115997E-7</v>
+        <v>5.9852663980564103E-7</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>3.9120707660913398E-2</v>
+        <v>4.0127307176589903E-2</v>
       </c>
       <c r="E75">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F75" s="12">
         <v>9.9936969810698801E-10</v>
@@ -20996,16 +20996,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="12">
-        <v>7.6653435598927899E-7</v>
+        <v>5.8740818076330396E-7</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>3.9166994392871801E-2</v>
+        <v>4.0186610072851098E-2</v>
       </c>
       <c r="E76">
-        <v>0.99419999122619596</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F76" s="12">
         <v>8.6426626966229399E-10</v>
@@ -21025,16 +21025,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="12">
-        <v>7.4857058507404798E-7</v>
+        <v>5.76801767238066E-7</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>3.9214599877595901E-2</v>
+        <v>4.02414090931415E-2</v>
       </c>
       <c r="E77">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F77" s="12">
         <v>7.4108358338875705E-10</v>
@@ -21054,16 +21054,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="12">
-        <v>7.3139153755619095E-7</v>
+        <v>5.6652265811862805E-7</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>3.9261911064386298E-2</v>
+        <v>4.0296655148267697E-2</v>
       </c>
       <c r="E78">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F78" s="12">
         <v>6.4770322438789601E-10</v>
@@ -21083,16 +21083,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="12">
-        <v>7.1499232490168599E-7</v>
+        <v>5.5673865517746805E-7</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>3.93058806657791E-2</v>
+        <v>4.0353160351514802E-2</v>
       </c>
       <c r="E79">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F79" s="12">
         <v>5.5630960948960199E-10</v>
@@ -21112,16 +21112,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="12">
-        <v>6.9947918746038298E-7</v>
+        <v>5.4708783636669903E-7</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>3.9352633059024797E-2</v>
+        <v>4.0406562387943198E-2</v>
       </c>
       <c r="E80">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F80" s="12">
         <v>4.8081044701220301E-10</v>
@@ -21141,16 +21141,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="12">
-        <v>6.8441113398875999E-7</v>
+        <v>5.3782963505000204E-7</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>3.93960364162921E-2</v>
+        <v>4.0459744632244103E-2</v>
       </c>
       <c r="E81">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F81" s="12">
         <v>4.1127179439826002E-10</v>
@@ -21170,16 +21170,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="12">
-        <v>6.7021886707152505E-7</v>
+        <v>5.2874469247399205E-7</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>3.9440326392650597E-2</v>
+        <v>4.0509320795536E-2</v>
       </c>
       <c r="E82">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F82" s="12">
         <v>3.5961450484123201E-10</v>
@@ -21199,16 +21199,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="12">
-        <v>6.5638579371807197E-7</v>
+        <v>5.2026132379978599E-7</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>3.9482235908508301E-2</v>
+        <v>4.0562596172094303E-2</v>
       </c>
       <c r="E83">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F83" s="12">
         <v>3.1391764188093398E-10</v>
@@ -21228,16 +21228,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="12">
-        <v>6.43361488528171E-7</v>
+        <v>5.1198992423451199E-7</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>3.9522852748632403E-2</v>
+        <v>4.0613237768411602E-2</v>
       </c>
       <c r="E84">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F84" s="12">
         <v>2.7418123327293999E-10</v>
@@ -21257,16 +21257,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="12">
-        <v>6.3077351342144496E-7</v>
+        <v>5.03715057220688E-7</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>3.9565842598676598E-2</v>
+        <v>4.0662147104740101E-2</v>
       </c>
       <c r="E85">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F85" s="12">
         <v>2.3841850715910999E-10</v>
@@ -21286,16 +21286,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="12">
-        <v>6.1859532252128702E-7</v>
+        <v>4.9590914841246495E-7</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>3.9604511111974702E-2</v>
+        <v>4.0710501372814102E-2</v>
       </c>
       <c r="E86">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F86" s="12">
         <v>2.12589820747233E-10</v>
@@ -21315,16 +21315,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="12">
-        <v>6.0691536418744299E-7</v>
+        <v>4.8843668309928003E-7</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>3.96470762789249E-2</v>
+        <v>4.0758751332759802E-2</v>
       </c>
       <c r="E87">
-        <v>0.99419999122619596</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F87" s="12">
         <v>1.78813880369332E-10</v>
@@ -21344,16 +21344,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="12">
-        <v>5.9566428944890504E-7</v>
+        <v>4.80914309264335E-7</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>3.9686340838670703E-2</v>
+        <v>4.0807045996189097E-2</v>
       </c>
       <c r="E88">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F88" s="12">
         <v>1.5695884869604201E-10</v>
@@ -21373,16 +21373,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="12">
-        <v>5.8479855624682302E-7</v>
+        <v>4.7378753720295197E-7</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>3.97244803607463E-2</v>
+        <v>4.0853589773178101E-2</v>
       </c>
       <c r="E89">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F89" s="12">
         <v>1.3510383090054001E-10</v>
@@ -21402,16 +21402,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="12">
-        <v>5.7437591749476195E-7</v>
+        <v>4.66777720475874E-7</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>3.9763730019330902E-2</v>
+        <v>4.0899202227592399E-2</v>
       </c>
       <c r="E90">
-        <v>0.99430000782012895</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F90" s="12">
         <v>1.1920925357955499E-10</v>
@@ -21431,16 +21431,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="12">
-        <v>5.6427489880661597E-7</v>
+        <v>4.5996048925189799E-7</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>3.9800763130187898E-2</v>
+        <v>4.09446842968463E-2</v>
       </c>
       <c r="E91">
-        <v>0.99440002441406194</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F91" s="12">
         <v>1.03314690136357E-10</v>
@@ -21460,16 +21460,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="12">
-        <v>5.5454182756875504E-7</v>
+        <v>4.5335588083616998E-7</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>3.9838206022977801E-2</v>
+        <v>4.0989875793456997E-2</v>
       </c>
       <c r="E92">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F92" s="12">
         <v>9.3380594923253504E-11</v>
@@ -21489,16 +21489,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="12">
-        <v>5.4517795433639496E-7</v>
+        <v>4.4697185330733101E-7</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>3.98734360933303E-2</v>
+        <v>4.1033476591110202E-2</v>
       </c>
       <c r="E93">
-        <v>0.99440002441406194</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F93" s="12">
         <v>7.9472844971562001E-11</v>
@@ -21518,16 +21518,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="12">
-        <v>5.3600410865328698E-7</v>
+        <v>4.4078046812501202E-7</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>3.9910692721605301E-2</v>
+        <v>4.1077222675084998E-2</v>
       </c>
       <c r="E94">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F94" s="12">
         <v>7.1525563249963398E-11</v>
@@ -21547,16 +21547,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="12">
-        <v>5.2724021770700304E-7</v>
+        <v>4.34854882769286E-7</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>3.9946168661117498E-2</v>
+        <v>4.1119623929262099E-2</v>
       </c>
       <c r="E95">
-        <v>0.99440002441406194</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F95" s="12">
         <v>6.7551915450270095E-11</v>
@@ -21576,16 +21576,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="12">
-        <v>5.1879788998121502E-7</v>
+        <v>4.2885213247245701E-7</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>3.9980631321668597E-2</v>
+        <v>4.1162990033626501E-2</v>
       </c>
       <c r="E96">
-        <v>0.99440002441406194</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F96" s="12">
         <v>5.9604633728671504E-11</v>
@@ -21605,16 +21605,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="12">
-        <v>5.1047237548118499E-7</v>
+        <v>4.2311935999350601E-7</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>4.0014289319515201E-2</v>
+        <v>4.1204381734132697E-2</v>
       </c>
       <c r="E97">
-        <v>0.99440002441406194</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F97" s="12">
         <v>5.1657352007072797E-11</v>
@@ -21634,16 +21634,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="12">
-        <v>5.0262008244317205E-7</v>
+        <v>4.1750590185074501E-7</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>4.0049895644187899E-2</v>
+        <v>4.1246388107538202E-2</v>
       </c>
       <c r="E98">
-        <v>0.99440002441406194</v>
+        <v>0.99370002746581998</v>
       </c>
       <c r="F98" s="12">
         <v>4.9670535046120101E-11</v>
@@ -21663,16 +21663,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="12">
-        <v>4.9486885700389298E-7</v>
+        <v>4.1211089296666598E-7</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>4.0081132203340503E-2</v>
+        <v>4.1287541389465297E-2</v>
       </c>
       <c r="E99">
-        <v>0.99440002441406194</v>
+        <v>0.99360001087188698</v>
       </c>
       <c r="F99" s="12">
         <v>4.3710066816027203E-11</v>
@@ -21692,16 +21692,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="12">
-        <v>4.8727457624408999E-7</v>
+        <v>4.06846709211095E-7</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>4.0115129202604197E-2</v>
+        <v>4.1325319558382E-2</v>
       </c>
       <c r="E100">
-        <v>0.99440002441406194</v>
+        <v>0.99379998445510798</v>
       </c>
       <c r="F100" s="12">
         <v>3.7749605524828298E-11</v>
@@ -21721,16 +21721,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="12">
-        <v>4.8006370434450197E-7</v>
+        <v>4.0164653114516098E-7</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>4.0147438645362798E-2</v>
+        <v>4.1367534548044198E-2</v>
       </c>
       <c r="E101">
-        <v>0.99440002441406194</v>
+        <v>0.99379998445510798</v>
       </c>
       <c r="F101" s="12">
         <v>3.17891407641823E-11</v>
@@ -21750,16 +21750,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="12">
-        <v>4.7307699446719198E-7</v>
+        <v>3.9668447016083498E-7</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>4.0179751813411699E-2</v>
+        <v>4.1406176984310102E-2</v>
       </c>
       <c r="E102">
-        <v>0.99440002441406194</v>
+        <v>0.99379998445510798</v>
       </c>
       <c r="F102" s="12">
         <v>3.17891407641823E-11</v>
@@ -21790,7 +21790,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21854,16 +21854,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.0189118385314901</v>
+        <v>1.95715844631195</v>
       </c>
       <c r="C3">
-        <v>0.246000006794929</v>
+        <v>0.26442000269889798</v>
       </c>
       <c r="D3">
-        <v>1.7098742723464899</v>
+        <v>1.5889191627502399</v>
       </c>
       <c r="E3">
-        <v>0.36719998717308</v>
+        <v>0.410699993371963</v>
       </c>
       <c r="F3">
         <v>1.9015758037567101</v>
@@ -21883,16 +21883,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.5240353345870901</v>
+        <v>1.4603351354598999</v>
       </c>
       <c r="C4">
-        <v>0.43878000974655101</v>
+        <v>0.46270000934600802</v>
       </c>
       <c r="D4">
-        <v>1.37856900691986</v>
+        <v>1.35266041755676</v>
       </c>
       <c r="E4">
-        <v>0.49680000543594299</v>
+        <v>0.50279998779296797</v>
       </c>
       <c r="F4">
         <v>1.4893995523452701</v>
@@ -21912,16 +21912,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.28373634815216</v>
+        <v>1.16599261760711</v>
       </c>
       <c r="C5">
-        <v>0.533980011940002</v>
+        <v>0.58006000518798795</v>
       </c>
       <c r="D5">
-        <v>1.1777318716049101</v>
+        <v>1.0944231748580899</v>
       </c>
       <c r="E5">
-        <v>0.57920002937316895</v>
+        <v>0.60759997367858798</v>
       </c>
       <c r="F5">
         <v>1.2225754261016799</v>
@@ -21941,16 +21941,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05421519279479</v>
+        <v>0.94991451501846302</v>
       </c>
       <c r="C6">
-        <v>0.62370002269744795</v>
+        <v>0.661660015583038</v>
       </c>
       <c r="D6">
-        <v>1.0757308006286599</v>
+        <v>0.93426012992858798</v>
       </c>
       <c r="E6">
-        <v>0.62010002136230402</v>
+        <v>0.66769999265670699</v>
       </c>
       <c r="F6">
         <v>1.02054154872894</v>
@@ -21970,16 +21970,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.87535071372985795</v>
+        <v>0.79892492294311501</v>
       </c>
       <c r="C7">
-        <v>0.69117999076843195</v>
+        <v>0.71723997592926003</v>
       </c>
       <c r="D7">
-        <v>0.89305782318115201</v>
+        <v>0.84033358097076405</v>
       </c>
       <c r="E7">
-        <v>0.68809998035430897</v>
+        <v>0.70700001716613703</v>
       </c>
       <c r="F7">
         <v>0.84873563051223699</v>
@@ -21999,16 +21999,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.73952764272689797</v>
+        <v>0.65656810998916604</v>
       </c>
       <c r="C8">
-        <v>0.74312001466751099</v>
+        <v>0.77187997102737405</v>
       </c>
       <c r="D8">
-        <v>0.89910185337066595</v>
+        <v>0.80332118272781305</v>
       </c>
       <c r="E8">
-        <v>0.69459998607635498</v>
+        <v>0.71909999847412098</v>
       </c>
       <c r="F8">
         <v>0.72251820564269997</v>
@@ -22028,16 +22028,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.61879211664199796</v>
+        <v>0.55197244882583596</v>
       </c>
       <c r="C9">
-        <v>0.78504002094268799</v>
+        <v>0.80743998289108199</v>
       </c>
       <c r="D9">
-        <v>0.83695739507675104</v>
+        <v>0.72675752639770497</v>
       </c>
       <c r="E9">
-        <v>0.71490001678466797</v>
+        <v>0.75739997625350897</v>
       </c>
       <c r="F9">
         <v>0.61012786626815796</v>
@@ -22057,16 +22057,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.51193982362747104</v>
+        <v>0.456828743219375</v>
       </c>
       <c r="C10">
-        <v>0.82209998369216897</v>
+        <v>0.84017997980117798</v>
       </c>
       <c r="D10">
-        <v>0.76060479879379195</v>
+        <v>0.76306796073913497</v>
       </c>
       <c r="E10">
-        <v>0.75010001659393299</v>
+        <v>0.75510001182556097</v>
       </c>
       <c r="F10">
         <v>0.50383639335632302</v>
@@ -22086,16 +22086,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.41465428471565202</v>
+        <v>0.37372952699661199</v>
       </c>
       <c r="C11">
-        <v>0.85456001758575395</v>
+        <v>0.86912000179290705</v>
       </c>
       <c r="D11">
-        <v>0.79532438516616799</v>
+        <v>0.77370500564575195</v>
       </c>
       <c r="E11">
-        <v>0.73930001258850098</v>
+        <v>0.76099997758865301</v>
       </c>
       <c r="F11">
         <v>0.414663255214691</v>
@@ -22115,16 +22115,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.345420122146606</v>
+        <v>0.30469083786010698</v>
       </c>
       <c r="C12">
-        <v>0.87849998474121005</v>
+        <v>0.89591997861862105</v>
       </c>
       <c r="D12">
-        <v>0.80723303556442205</v>
+        <v>0.72829174995422297</v>
       </c>
       <c r="E12">
-        <v>0.74529999494552601</v>
+        <v>0.76829999685287398</v>
       </c>
       <c r="F12">
         <v>0.335786253213882</v>
@@ -22144,16 +22144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.27142578363418501</v>
+        <v>0.243548363447189</v>
       </c>
       <c r="C13">
-        <v>0.90508002042770297</v>
+        <v>0.914719998836517</v>
       </c>
       <c r="D13">
-        <v>0.84250378608703602</v>
+        <v>0.87125760316848699</v>
       </c>
       <c r="E13">
-        <v>0.75429999828338601</v>
+        <v>0.74849998950958196</v>
       </c>
       <c r="F13">
         <v>0.26873210072517301</v>
@@ -22173,16 +22173,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.225191429257392</v>
+        <v>0.20138727128505701</v>
       </c>
       <c r="C14">
-        <v>0.92221999168395996</v>
+        <v>0.93029999732971103</v>
       </c>
       <c r="D14">
-        <v>0.90360939502715998</v>
+        <v>0.81588166952133101</v>
       </c>
       <c r="E14">
-        <v>0.75529998540878296</v>
+        <v>0.77079999446868896</v>
       </c>
       <c r="F14">
         <v>0.23224349319934801</v>
@@ -22202,16 +22202,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.18545499444007801</v>
+        <v>0.16724149882793399</v>
       </c>
       <c r="C15">
-        <v>0.936259984970092</v>
+        <v>0.94139999151229803</v>
       </c>
       <c r="D15">
-        <v>0.89374655485153198</v>
+        <v>0.91979348659515303</v>
       </c>
       <c r="E15">
-        <v>0.763499975204467</v>
+        <v>0.77660000324249201</v>
       </c>
       <c r="F15">
         <v>0.18043895065784399</v>
@@ -22231,16 +22231,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.146449744701385</v>
+        <v>0.13048180937767001</v>
       </c>
       <c r="C16">
-        <v>0.94792002439498901</v>
+        <v>0.95476001501083296</v>
       </c>
       <c r="D16">
-        <v>0.86021691560745195</v>
+        <v>0.93865478038787797</v>
       </c>
       <c r="E16">
-        <v>0.76169997453689497</v>
+        <v>0.76749998331069902</v>
       </c>
       <c r="F16">
         <v>0.151347741484642</v>
@@ -22260,16 +22260,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.12164635956287299</v>
+        <v>0.109414540231227</v>
       </c>
       <c r="C17">
-        <v>0.95770001411437899</v>
+        <v>0.96167999505996704</v>
       </c>
       <c r="D17">
-        <v>1.02404236793518</v>
+        <v>0.93952149152755704</v>
       </c>
       <c r="E17">
-        <v>0.75709998607635498</v>
+        <v>0.77340000867843595</v>
       </c>
       <c r="F17">
         <v>0.129381284117698</v>
@@ -22289,16 +22289,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.93334054946899E-2</v>
+        <v>9.1955870389938299E-2</v>
       </c>
       <c r="C18">
-        <v>0.96613997220992998</v>
+        <v>0.96899998188018799</v>
       </c>
       <c r="D18">
-        <v>1.07192611694335</v>
+        <v>1.01625776290893</v>
       </c>
       <c r="E18">
-        <v>0.75639998912811202</v>
+        <v>0.77730000019073398</v>
       </c>
       <c r="F18">
         <v>0.10361286252736999</v>
@@ -22318,16 +22318,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.3931706845760304E-2</v>
+        <v>8.2345627248287201E-2</v>
       </c>
       <c r="C19">
-        <v>0.97134000062942505</v>
+        <v>0.97158002853393499</v>
       </c>
       <c r="D19">
-        <v>1.0520764589309599</v>
+        <v>0.99206095933914096</v>
       </c>
       <c r="E19">
-        <v>0.75999999046325595</v>
+        <v>0.78700000047683705</v>
       </c>
       <c r="F19">
         <v>9.8802179098129203E-2</v>
@@ -22347,16 +22347,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.3235055208206093E-2</v>
+        <v>7.1309506893157903E-2</v>
       </c>
       <c r="C20">
-        <v>0.97158002853393499</v>
+        <v>0.97585999965667702</v>
       </c>
       <c r="D20">
-        <v>1.11747658252716</v>
+        <v>1.1204960346221899</v>
       </c>
       <c r="E20">
-        <v>0.76579999923705999</v>
+        <v>0.77700001001357999</v>
       </c>
       <c r="F20">
         <v>8.8283807039260795E-2</v>
@@ -22376,16 +22376,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.4154244959354401E-2</v>
+        <v>6.29401579499244E-2</v>
       </c>
       <c r="C21">
-        <v>0.97820001840591397</v>
+        <v>0.97794002294540405</v>
       </c>
       <c r="D21">
-        <v>1.21312379837036</v>
+        <v>1.0177700519561701</v>
       </c>
       <c r="E21">
-        <v>0.75279998779296797</v>
+        <v>0.78939998149871804</v>
       </c>
       <c r="F21">
         <v>7.6431736350059495E-2</v>
@@ -22405,16 +22405,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.8681983500719001E-2</v>
+        <v>5.3987722843885401E-2</v>
       </c>
       <c r="C22">
-        <v>0.98040002584457397</v>
+        <v>0.98145997524261397</v>
       </c>
       <c r="D22">
-        <v>1.07383155822753</v>
+        <v>1.08814620971679</v>
       </c>
       <c r="E22">
-        <v>0.774500012397766</v>
+        <v>0.78500002622604304</v>
       </c>
       <c r="F22">
         <v>7.1984715759754098E-2</v>
@@ -22434,16 +22434,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.0415318459272301E-2</v>
+        <v>4.6221785247325897E-2</v>
       </c>
       <c r="C23">
-        <v>0.98313999176025302</v>
+        <v>0.98427999019622803</v>
       </c>
       <c r="D23">
-        <v>1.0985939502716</v>
+        <v>1.08238685131073</v>
       </c>
       <c r="E23">
-        <v>0.763300001621246</v>
+        <v>0.78439998626708896</v>
       </c>
       <c r="F23">
         <v>6.6014461219310705E-2</v>
@@ -22463,16 +22463,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.0137417614459901E-2</v>
+        <v>4.7217164188623401E-2</v>
       </c>
       <c r="C24">
-        <v>0.98676002025604204</v>
+        <v>0.98378002643585205</v>
       </c>
       <c r="D24">
-        <v>1.30935502052307</v>
+        <v>1.0453073978423999</v>
       </c>
       <c r="E24">
-        <v>0.77120000123977595</v>
+        <v>0.78020000457763605</v>
       </c>
       <c r="F24">
         <v>6.62521421909332E-2</v>
@@ -22492,16 +22492,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.2448140680789899E-2</v>
+        <v>3.3379703760146998E-2</v>
       </c>
       <c r="C25">
-        <v>0.98533999919891302</v>
+        <v>0.98835998773574796</v>
       </c>
       <c r="D25">
-        <v>1.26976907253265</v>
+        <v>1.08892381191253</v>
       </c>
       <c r="E25">
-        <v>0.75620001554489102</v>
+        <v>0.78769999742507901</v>
       </c>
       <c r="F25">
         <v>5.9072997421026202E-2</v>
@@ -22521,16 +22521,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.04462963342666E-2</v>
+        <v>3.1381200999021502E-2</v>
       </c>
       <c r="C26">
-        <v>0.98640000820159901</v>
+        <v>0.98963999748229903</v>
       </c>
       <c r="D26">
-        <v>1.1926698684692301</v>
+        <v>1.155566573143</v>
       </c>
       <c r="E26">
-        <v>0.77549999952316195</v>
+        <v>0.78369998931884699</v>
       </c>
       <c r="F26">
         <v>5.90402893722057E-2</v>
@@ -22550,16 +22550,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.4304510802030501E-2</v>
+        <v>3.5641238093376097E-2</v>
       </c>
       <c r="C27">
-        <v>0.98827999830245905</v>
+        <v>0.988039970397949</v>
       </c>
       <c r="D27">
-        <v>1.2271820306777901</v>
+        <v>1.11635041236877</v>
       </c>
       <c r="E27">
-        <v>0.77050000429153398</v>
+        <v>0.78829997777938798</v>
       </c>
       <c r="F27">
         <v>5.94737641513347E-2</v>
@@ -22579,13 +22579,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.5119622945785502E-2</v>
+        <v>2.78452858328819E-2</v>
       </c>
       <c r="C28">
-        <v>0.98816001415252597</v>
+        <v>0.99059998989105202</v>
       </c>
       <c r="D28">
-        <v>1.1985548734664899</v>
+        <v>1.3286565542221001</v>
       </c>
       <c r="E28">
         <v>0.77880001068115201</v>
@@ -22608,16 +22608,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.79737580567598E-2</v>
+        <v>3.2027758657932198E-2</v>
       </c>
       <c r="C29">
-        <v>0.99026000499725297</v>
+        <v>0.98953998088836603</v>
       </c>
       <c r="D29">
-        <v>1.32044696807861</v>
+        <v>1.1286327838897701</v>
       </c>
       <c r="E29">
-        <v>0.76940000057220403</v>
+        <v>0.78149998188018799</v>
       </c>
       <c r="F29">
         <v>4.8897691071033401E-2</v>
@@ -22637,16 +22637,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.8163397684693298E-2</v>
+        <v>2.17797942459583E-2</v>
       </c>
       <c r="C30">
-        <v>0.99089998006820601</v>
+        <v>0.99294000864028897</v>
       </c>
       <c r="D30">
-        <v>1.2390478849411</v>
+        <v>1.18534290790557</v>
       </c>
       <c r="E30">
-        <v>0.77310001850128096</v>
+        <v>0.78839999437332098</v>
       </c>
       <c r="F30">
         <v>4.4583082199096603E-2</v>
@@ -22666,16 +22666,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.4404246360063501E-2</v>
+        <v>2.1153621375560702E-2</v>
       </c>
       <c r="C31">
-        <v>0.99216002225875799</v>
+        <v>0.99250000715255704</v>
       </c>
       <c r="D31">
-        <v>1.2842229604721001</v>
+        <v>1.1635785102844201</v>
       </c>
       <c r="E31">
-        <v>0.77490001916885298</v>
+        <v>0.78939998149871804</v>
       </c>
       <c r="F31">
         <v>5.1461607217788599E-2</v>
@@ -22695,16 +22695,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.33517922461032E-2</v>
+        <v>2.5032756850123399E-2</v>
       </c>
       <c r="C32">
-        <v>0.99224001169204701</v>
+        <v>0.99137997627258301</v>
       </c>
       <c r="D32">
-        <v>1.25744593143463</v>
+        <v>1.17998754978179</v>
       </c>
       <c r="E32">
-        <v>0.78320002555847101</v>
+        <v>0.77609997987747104</v>
       </c>
       <c r="F32">
         <v>4.8357635736465399E-2</v>
@@ -22724,16 +22724,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.01627723872661E-2</v>
+        <v>2.27398388087749E-2</v>
       </c>
       <c r="C33">
-        <v>0.99365997314453103</v>
+        <v>0.99295997619628895</v>
       </c>
       <c r="D33">
-        <v>1.33398342132568</v>
+        <v>1.2304557561874301</v>
       </c>
       <c r="E33">
-        <v>0.77969998121261597</v>
+        <v>0.79079997539520197</v>
       </c>
       <c r="F33">
         <v>4.51261438429355E-2</v>
@@ -22753,16 +22753,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.7825348302721901E-2</v>
+        <v>2.3236852139234501E-2</v>
       </c>
       <c r="C34">
-        <v>0.99430000782012895</v>
+        <v>0.99221998453140203</v>
       </c>
       <c r="D34">
-        <v>1.43848228454589</v>
+        <v>1.1707681417465201</v>
       </c>
       <c r="E34">
-        <v>0.778999984264373</v>
+        <v>0.79390001296997004</v>
       </c>
       <c r="F34">
         <v>4.1450873017310999E-2</v>
@@ -22782,16 +22782,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.5973152369260701E-2</v>
+        <v>1.6601743176579399E-2</v>
       </c>
       <c r="C35">
-        <v>0.99150002002715998</v>
+        <v>0.99453997611999501</v>
       </c>
       <c r="D35">
-        <v>1.3371042013168299</v>
+        <v>1.2319859266281099</v>
       </c>
       <c r="E35">
-        <v>0.77810001373291005</v>
+        <v>0.79210001230239802</v>
       </c>
       <c r="F35">
         <v>4.1461087763309402E-2</v>
@@ -22811,16 +22811,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.38445841148495E-2</v>
+        <v>2.0300859585404299E-2</v>
       </c>
       <c r="C36">
-        <v>0.99545997381210305</v>
+        <v>0.993300020694732</v>
       </c>
       <c r="D36">
-        <v>1.4839569330215401</v>
+        <v>1.2586758136749201</v>
       </c>
       <c r="E36">
-        <v>0.77189999818801802</v>
+        <v>0.79140001535415605</v>
       </c>
       <c r="F36">
         <v>3.8875523954629898E-2</v>
@@ -22840,16 +22840,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.9149610772728899E-2</v>
+        <v>1.8484855070710099E-2</v>
       </c>
       <c r="C37">
-        <v>0.99375998973846402</v>
+        <v>0.99353998899459794</v>
       </c>
       <c r="D37">
-        <v>1.36904740333557</v>
+        <v>1.23450219631195</v>
       </c>
       <c r="E37">
-        <v>0.77710002660751298</v>
+        <v>0.78869998455047596</v>
       </c>
       <c r="F37">
         <v>3.7928819656372001E-2</v>
@@ -22869,16 +22869,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.1247232332825602E-2</v>
+        <v>1.40907419845461E-2</v>
       </c>
       <c r="C38">
-        <v>0.99279999732971103</v>
+        <v>0.99514001607894897</v>
       </c>
       <c r="D38">
-        <v>1.30364978313446</v>
+        <v>1.2699840068817101</v>
       </c>
       <c r="E38">
-        <v>0.78200000524520796</v>
+        <v>0.79360002279281605</v>
       </c>
       <c r="F38">
         <v>3.8411956280469797E-2</v>
@@ -22898,16 +22898,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.4408721588551899E-2</v>
+        <v>1.7730234190821599E-2</v>
       </c>
       <c r="C39">
-        <v>0.99514001607894897</v>
+        <v>0.99405997991561801</v>
       </c>
       <c r="D39">
-        <v>1.3284877538680999</v>
+        <v>1.2515525817871</v>
       </c>
       <c r="E39">
-        <v>0.78700000047683705</v>
+        <v>0.78930002450942904</v>
       </c>
       <c r="F39">
         <v>3.6766435950994401E-2</v>
@@ -22927,16 +22927,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.29403611645102E-2</v>
+        <v>1.0158297605812499E-2</v>
       </c>
       <c r="C40">
-        <v>0.99572002887725797</v>
+        <v>0.99639999866485596</v>
       </c>
       <c r="D40">
-        <v>1.31461489200592</v>
+        <v>1.3342319726943901</v>
       </c>
       <c r="E40">
-        <v>0.776700019836425</v>
+        <v>0.796800017356872</v>
       </c>
       <c r="F40">
         <v>4.0326837450265801E-2</v>
@@ -22956,16 +22956,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.31350206211209E-2</v>
+        <v>1.19425449520349E-2</v>
       </c>
       <c r="C41">
         <v>0.99585998058319003</v>
       </c>
       <c r="D41">
-        <v>1.4406701326370199</v>
+        <v>1.2836710214614799</v>
       </c>
       <c r="E41">
-        <v>0.78140002489089899</v>
+        <v>0.78710001707077004</v>
       </c>
       <c r="F41">
         <v>3.6513324826955698E-2</v>
@@ -22985,16 +22985,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.15050598978996E-2</v>
+        <v>1.4538636431097899E-2</v>
       </c>
       <c r="C42">
-        <v>0.99599999189376798</v>
+        <v>0.99533998966216997</v>
       </c>
       <c r="D42">
-        <v>1.4269558191299401</v>
+        <v>1.32959067821502</v>
       </c>
       <c r="E42">
-        <v>0.77259999513626099</v>
+        <v>0.79710000753402699</v>
       </c>
       <c r="F42">
         <v>3.1092440709471699E-2</v>
@@ -23014,16 +23014,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.03400142490863E-2</v>
+        <v>1.5187957324087601E-2</v>
       </c>
       <c r="C43">
-        <v>0.99312001466751099</v>
+        <v>0.99479997158050504</v>
       </c>
       <c r="D43">
-        <v>1.2998116016387899</v>
+        <v>1.2359658479690501</v>
       </c>
       <c r="E43">
-        <v>0.77369999885559004</v>
+        <v>0.79809999465942305</v>
       </c>
       <c r="F43">
         <v>3.5788275301456403E-2</v>
@@ -23043,16 +23043,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>9.2111872509121895E-3</v>
+        <v>1.3908647000789601E-2</v>
       </c>
       <c r="C44">
-        <v>0.996840000152587</v>
+        <v>0.99580001831054599</v>
       </c>
       <c r="D44">
-        <v>1.4309495687484699</v>
+        <v>1.2880555391311601</v>
       </c>
       <c r="E44">
-        <v>0.78229999542236295</v>
+        <v>0.78609997034072798</v>
       </c>
       <c r="F44">
         <v>3.3955793827772099E-2</v>
@@ -23072,16 +23072,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>9.8500242456793698E-3</v>
+        <v>7.0549473166465699E-3</v>
       </c>
       <c r="C45">
-        <v>0.99681997299194303</v>
+        <v>0.99791997671127297</v>
       </c>
       <c r="D45">
-        <v>1.45137250423431</v>
+        <v>1.3686180114746</v>
       </c>
       <c r="E45">
-        <v>0.77189999818801802</v>
+        <v>0.78490000963211004</v>
       </c>
       <c r="F45">
         <v>3.4811183810234E-2</v>
@@ -23101,16 +23101,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.54982339590787E-2</v>
+        <v>1.1377722956240101E-2</v>
       </c>
       <c r="C46">
-        <v>0.99481999874114901</v>
+        <v>0.99651998281478804</v>
       </c>
       <c r="D46">
-        <v>1.3807514905929501</v>
+        <v>1.3341264724731401</v>
       </c>
       <c r="E46">
-        <v>0.77649998664855902</v>
+        <v>0.79479998350143399</v>
       </c>
       <c r="F46">
         <v>3.2287683337926802E-2</v>
@@ -23130,16 +23130,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>9.9400505423545803E-3</v>
+        <v>1.3156129047274499E-2</v>
       </c>
       <c r="C47">
-        <v>0.99665999412536599</v>
+        <v>0.99572002887725797</v>
       </c>
       <c r="D47">
-        <v>1.4424237012863099</v>
+        <v>1.24835228919982</v>
       </c>
       <c r="E47">
-        <v>0.78149998188018799</v>
+        <v>0.80229997634887695</v>
       </c>
       <c r="F47">
         <v>2.82563455402851E-2</v>
@@ -23159,16 +23159,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8.8053122162818891E-3</v>
+        <v>5.8106025680899603E-3</v>
       </c>
       <c r="C48">
-        <v>0.99695998430251997</v>
+        <v>0.998179972171783</v>
       </c>
       <c r="D48">
-        <v>1.5284285545349099</v>
+        <v>1.3965829610824501</v>
       </c>
       <c r="E48">
-        <v>0.779100000858306</v>
+        <v>0.80250000953674305</v>
       </c>
       <c r="F48">
         <v>3.3182356506585999E-2</v>
@@ -23188,16 +23188,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.41021767631173E-2</v>
+        <v>1.0356695391237699E-2</v>
       </c>
       <c r="C49">
-        <v>0.99518001079559304</v>
+        <v>0.99659997224807695</v>
       </c>
       <c r="D49">
-        <v>1.35164487361907</v>
+        <v>1.35116899013519</v>
       </c>
       <c r="E49">
-        <v>0.78560000658035201</v>
+        <v>0.78969997167587203</v>
       </c>
       <c r="F49">
         <v>3.3541664481162997E-2</v>
@@ -23217,16 +23217,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.19257913902401E-2</v>
+        <v>1.25251803547143E-2</v>
       </c>
       <c r="C50">
-        <v>0.99614000320434504</v>
+        <v>0.995980024337768</v>
       </c>
       <c r="D50">
-        <v>1.40019559860229</v>
+        <v>1.2092802524566599</v>
       </c>
       <c r="E50">
-        <v>0.77270001173019398</v>
+        <v>0.79329997301101596</v>
       </c>
       <c r="F50">
         <v>2.6131445541977799E-2</v>
@@ -23246,16 +23246,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.1003049090504599E-2</v>
+        <v>9.9505037069320592E-3</v>
       </c>
       <c r="C51">
-        <v>0.99620002508163397</v>
+        <v>0.99647998809814398</v>
       </c>
       <c r="D51">
-        <v>1.45734810829162</v>
+        <v>1.3078854084014799</v>
       </c>
       <c r="E51">
-        <v>0.776799976825714</v>
+        <v>0.79199999570846502</v>
       </c>
       <c r="F51">
         <v>3.3231176435947397E-2</v>
@@ -23275,16 +23275,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.0911330580711301E-2</v>
+        <v>8.3731710910797102E-3</v>
       </c>
       <c r="C52">
-        <v>0.99655997753143299</v>
+        <v>0.99713999032974199</v>
       </c>
       <c r="D52">
-        <v>1.3606103658676101</v>
+        <v>1.4358165264129601</v>
       </c>
       <c r="E52">
-        <v>0.78219997882842995</v>
+        <v>0.79079997539520197</v>
       </c>
       <c r="F52">
         <v>2.7552125975489599E-2</v>
@@ -23304,16 +23304,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8.3952518180012703E-3</v>
+        <v>1.1417978443205299E-2</v>
       </c>
       <c r="C53">
-        <v>0.99728000164031905</v>
+        <v>0.99639999866485596</v>
       </c>
       <c r="D53">
-        <v>1.4130668640136701</v>
+        <v>1.24229955673217</v>
       </c>
       <c r="E53">
-        <v>0.778999984264373</v>
+        <v>0.79290002584457397</v>
       </c>
       <c r="F53">
         <v>2.4949254468083298E-2</v>
@@ -23333,16 +23333,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8.9583657681941899E-3</v>
+        <v>7.3742112144827799E-3</v>
       </c>
       <c r="C54">
-        <v>0.996940016746521</v>
+        <v>0.99764001369476296</v>
       </c>
       <c r="D54">
-        <v>1.52864277362823</v>
+        <v>1.3189842700958201</v>
       </c>
       <c r="E54">
-        <v>0.77780002355575495</v>
+        <v>0.79610002040863004</v>
       </c>
       <c r="F54">
         <v>2.6146750897169099E-2</v>
@@ -23362,16 +23362,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.1168369092047201E-2</v>
+        <v>4.5592072419822199E-3</v>
       </c>
       <c r="C55">
-        <v>0.99620002508163397</v>
+        <v>0.99867999553680398</v>
       </c>
       <c r="D55">
-        <v>1.47096836566925</v>
+        <v>1.460986495018</v>
       </c>
       <c r="E55">
-        <v>0.78289997577667203</v>
+        <v>0.80159997940063399</v>
       </c>
       <c r="F55">
         <v>2.5748265907168302E-2</v>
@@ -23391,16 +23391,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.5883381068706504E-3</v>
+        <v>2.2407360374927499E-3</v>
       </c>
       <c r="C56">
-        <v>0.99786001443862904</v>
+        <v>0.99930000305175704</v>
       </c>
       <c r="D56">
-        <v>1.5141015052795399</v>
+        <v>1.5189119577407799</v>
       </c>
       <c r="E56">
-        <v>0.77840000391006403</v>
+        <v>0.79930001497268599</v>
       </c>
       <c r="F56">
         <v>2.8365351259708401E-2</v>
@@ -23420,16 +23420,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8.4076188504695892E-3</v>
+        <v>7.1927802637219403E-3</v>
       </c>
       <c r="C57">
-        <v>0.99720001220703103</v>
+        <v>0.99765998125076205</v>
       </c>
       <c r="D57">
-        <v>1.5114623308181701</v>
+        <v>1.4200307130813501</v>
       </c>
       <c r="E57">
-        <v>0.77759999036788896</v>
+        <v>0.79479998350143399</v>
       </c>
       <c r="F57">
         <v>2.4348651990294401E-2</v>
@@ -23449,16 +23449,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>9.0666171163320507E-3</v>
+        <v>1.08941430225968E-2</v>
       </c>
       <c r="C58">
-        <v>0.99686002731323198</v>
+        <v>0.99625998735427801</v>
       </c>
       <c r="D58">
-        <v>1.4550656080245901</v>
+        <v>1.2934267520904501</v>
       </c>
       <c r="E58">
-        <v>0.78030002117156905</v>
+        <v>0.79430001974105802</v>
       </c>
       <c r="F58">
         <v>2.2522768005728701E-2</v>
@@ -23478,16 +23478,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.0789127089083099E-2</v>
+        <v>8.2681393250823004E-3</v>
       </c>
       <c r="C59">
-        <v>0.99629998207092196</v>
+        <v>0.99706000089645297</v>
       </c>
       <c r="D59">
-        <v>1.4452763795852599</v>
+        <v>1.38972520828247</v>
       </c>
       <c r="E59">
-        <v>0.77920001745223999</v>
+        <v>0.79850000143051103</v>
       </c>
       <c r="F59">
         <v>2.2266708314418699E-2</v>
@@ -23507,16 +23507,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.4934774786233902E-3</v>
+        <v>6.3766217790543998E-3</v>
       </c>
       <c r="C60">
-        <v>0.996940016746521</v>
+        <v>0.99797999858856201</v>
       </c>
       <c r="D60">
-        <v>1.4957580566406199</v>
+        <v>1.41299796104431</v>
       </c>
       <c r="E60">
-        <v>0.78200000524520796</v>
+        <v>0.79689997434616</v>
       </c>
       <c r="F60">
         <v>2.4150343611836399E-2</v>
@@ -23536,16 +23536,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.13197611644864E-2</v>
+        <v>3.0194690916687198E-3</v>
       </c>
       <c r="C61">
-        <v>0.99621999263763406</v>
+        <v>0.99910002946853604</v>
       </c>
       <c r="D61">
-        <v>1.4363270998001001</v>
+        <v>1.5935090780258101</v>
       </c>
       <c r="E61">
-        <v>0.77270001173019398</v>
+        <v>0.79530000686645497</v>
       </c>
       <c r="F61">
         <v>2.2987959906458799E-2</v>
@@ -23565,16 +23565,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.7453834712505306E-3</v>
+        <v>8.6536668241024E-3</v>
       </c>
       <c r="C62">
-        <v>0.99716001749038696</v>
+        <v>0.99720001220703103</v>
       </c>
       <c r="D62">
-        <v>1.45295786857604</v>
+        <v>1.45868408679962</v>
       </c>
       <c r="E62">
-        <v>0.78140002489089899</v>
+        <v>0.79409998655319203</v>
       </c>
       <c r="F62">
         <v>2.2878268733620599E-2</v>
@@ -23594,16 +23594,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8.6769526824355108E-3</v>
+        <v>8.3299605175852706E-3</v>
       </c>
       <c r="C63">
-        <v>0.99706000089645297</v>
+        <v>0.99713999032974199</v>
       </c>
       <c r="D63">
-        <v>1.46447730064392</v>
+        <v>1.4888916015625</v>
       </c>
       <c r="E63">
-        <v>0.78930002450942904</v>
+        <v>0.79589998722076405</v>
       </c>
       <c r="F63">
         <v>2.21561044454574E-2</v>
@@ -23623,16 +23623,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.57814012467861E-3</v>
+        <v>7.0753768086433402E-3</v>
       </c>
       <c r="C64">
-        <v>0.99772000312805098</v>
+        <v>0.99746000766754095</v>
       </c>
       <c r="D64">
-        <v>1.4504148960113501</v>
+        <v>1.40688920021057</v>
       </c>
       <c r="E64">
-        <v>0.785799980163574</v>
+        <v>0.79710000753402699</v>
       </c>
       <c r="F64">
         <v>2.3934433236718101E-2</v>
@@ -23652,16 +23652,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.1960186101496202E-3</v>
+        <v>6.9167339242994699E-3</v>
       </c>
       <c r="C65">
-        <v>0.99839997291564897</v>
+        <v>0.99761998653411799</v>
       </c>
       <c r="D65">
-        <v>1.5135743618011399</v>
+        <v>1.4755486249923699</v>
       </c>
       <c r="E65">
-        <v>0.78740000724792403</v>
+        <v>0.79739999771118097</v>
       </c>
       <c r="F65">
         <v>2.3365946486592199E-2</v>
@@ -23681,16 +23681,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.81444820575416E-3</v>
+        <v>5.4286783561110497E-3</v>
       </c>
       <c r="C66">
-        <v>0.99926000833511297</v>
+        <v>0.99813997745513905</v>
       </c>
       <c r="D66">
-        <v>1.4904204607009801</v>
+        <v>1.3486427068710301</v>
       </c>
       <c r="E66">
-        <v>0.78829997777938798</v>
+        <v>0.79689997434616</v>
       </c>
       <c r="F66">
         <v>2.02606599777936E-2</v>
@@ -23710,16 +23710,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.88308039307594E-3</v>
+        <v>6.7719966173171997E-3</v>
       </c>
       <c r="C67">
-        <v>0.99897998571395796</v>
+        <v>0.99761998653411799</v>
       </c>
       <c r="D67">
-        <v>1.6984946727752599</v>
+        <v>1.45811283588409</v>
       </c>
       <c r="E67">
-        <v>0.77990001440048196</v>
+        <v>0.80070000886917103</v>
       </c>
       <c r="F67">
         <v>2.4166025221347798E-2</v>
@@ -23739,16 +23739,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>8.9785605669021606E-3</v>
+        <v>7.3196440935134801E-3</v>
       </c>
       <c r="C68">
-        <v>0.99717998504638605</v>
+        <v>0.99773997068405096</v>
       </c>
       <c r="D68">
-        <v>1.4474651813507</v>
+        <v>1.3755478858947701</v>
       </c>
       <c r="E68">
-        <v>0.78109997510910001</v>
+        <v>0.794600009918212</v>
       </c>
       <c r="F68">
         <v>1.9625697284936901E-2</v>
@@ -23768,16 +23768,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.3477967157959903E-3</v>
+        <v>3.3443544525653098E-3</v>
       </c>
       <c r="C69">
-        <v>0.99835997819900502</v>
+        <v>0.99893999099731401</v>
       </c>
       <c r="D69">
-        <v>1.53601038455963</v>
+        <v>1.4442015886306701</v>
       </c>
       <c r="E69">
-        <v>0.78740000724792403</v>
+        <v>0.80099999904632502</v>
       </c>
       <c r="F69">
         <v>2.2728584706783201E-2</v>
@@ -23797,16 +23797,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.3261550124734601E-3</v>
+        <v>4.0312260389328003E-3</v>
       </c>
       <c r="C70">
-        <v>0.99897998571395796</v>
+        <v>0.99849998950958196</v>
       </c>
       <c r="D70">
-        <v>1.5362848043441699</v>
+        <v>1.52973532676696</v>
       </c>
       <c r="E70">
-        <v>0.783599972724914</v>
+        <v>0.79540002346038796</v>
       </c>
       <c r="F70">
         <v>1.7526051029562902E-2</v>
@@ -23826,16 +23826,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.0892173312604401E-3</v>
+        <v>6.3772443681955303E-3</v>
       </c>
       <c r="C71">
-        <v>0.99834001064300504</v>
+        <v>0.99800002574920599</v>
       </c>
       <c r="D71">
-        <v>1.56414198875427</v>
+        <v>1.45169961452484</v>
       </c>
       <c r="E71">
-        <v>0.7878999710083</v>
+        <v>0.79149997234344405</v>
       </c>
       <c r="F71">
         <v>1.9503256306052201E-2</v>
@@ -23855,16 +23855,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.1379961185157299E-3</v>
+        <v>9.9730901420116407E-3</v>
       </c>
       <c r="C72">
-        <v>0.998560011386871</v>
+        <v>0.99676001071929898</v>
       </c>
       <c r="D72">
-        <v>1.6759574413299501</v>
+        <v>1.3350476026535001</v>
       </c>
       <c r="E72">
-        <v>0.79500001668929998</v>
+        <v>0.78969997167587203</v>
       </c>
       <c r="F72">
         <v>2.04327031970024E-2</v>
@@ -23884,16 +23884,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8.7382504716515506E-3</v>
+        <v>8.3085820078849792E-3</v>
       </c>
       <c r="C73">
         <v>0.99717998504638605</v>
       </c>
       <c r="D73">
-        <v>1.41181433200836</v>
+        <v>1.47153627872467</v>
       </c>
       <c r="E73">
-        <v>0.78079998493194502</v>
+        <v>0.79070001840591397</v>
       </c>
       <c r="F73">
         <v>1.75654217600822E-2</v>
@@ -23913,16 +23913,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.0591378025710496E-3</v>
+        <v>7.3072807863354596E-3</v>
       </c>
       <c r="C74">
-        <v>0.99772000312805098</v>
+        <v>0.99790000915527299</v>
       </c>
       <c r="D74">
-        <v>1.4512687921523999</v>
+        <v>1.35212934017181</v>
       </c>
       <c r="E74">
-        <v>0.77920001745223999</v>
+        <v>0.80110001564025801</v>
       </c>
       <c r="F74">
         <v>1.98367219418287E-2</v>
@@ -23942,16 +23942,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.6742095835506899E-3</v>
+        <v>1.6537351766601201E-3</v>
       </c>
       <c r="C75">
-        <v>0.99901998043060303</v>
+        <v>0.99948000907897905</v>
       </c>
       <c r="D75">
-        <v>1.5819163322448699</v>
+        <v>1.46810555458068</v>
       </c>
       <c r="E75">
-        <v>0.78549998998641901</v>
+        <v>0.80669999122619596</v>
       </c>
       <c r="F75">
         <v>1.64458137005567E-2</v>
@@ -23971,16 +23971,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.2157312855124404E-3</v>
+        <v>3.1457855366170402E-3</v>
       </c>
       <c r="C76">
-        <v>0.99853998422622603</v>
+        <v>0.99919998645782404</v>
       </c>
       <c r="D76">
-        <v>1.70410239696502</v>
+        <v>1.40911304950714</v>
       </c>
       <c r="E76">
-        <v>0.78090000152587802</v>
+        <v>0.79879999160766602</v>
       </c>
       <c r="F76">
         <v>2.45852321386337E-2</v>
@@ -24000,16 +24000,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.0233955048024602E-3</v>
+        <v>2.6233629323542101E-3</v>
       </c>
       <c r="C77">
-        <v>0.99791997671127297</v>
+        <v>0.99915999174117998</v>
       </c>
       <c r="D77">
-        <v>1.4842013120651201</v>
+        <v>1.49821424484252</v>
       </c>
       <c r="E77">
-        <v>0.78860002756118697</v>
+        <v>0.80199998617172197</v>
       </c>
       <c r="F77">
         <v>1.5346325933933201E-2</v>
@@ -24029,16 +24029,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>9.9223537836223797E-4</v>
+        <v>5.9305340982973498E-3</v>
       </c>
       <c r="C78">
-        <v>0.99971997737884499</v>
+        <v>0.998279988765716</v>
       </c>
       <c r="D78">
-        <v>1.65647888183593</v>
+        <v>1.4087101221084499</v>
       </c>
       <c r="E78">
-        <v>0.79360002279281605</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="F78">
         <v>1.8028071150183601E-2</v>
@@ -24057,17 +24057,17 @@
       <c r="A79" s="9">
         <v>77</v>
       </c>
-      <c r="B79" s="12">
-        <v>3.2860727515071603E-5</v>
+      <c r="B79">
+        <v>4.3742619454860601E-3</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0.99845999479293801</v>
       </c>
       <c r="D79">
-        <v>1.6888464689254701</v>
+        <v>1.52908134460449</v>
       </c>
       <c r="E79">
-        <v>0.79479998350143399</v>
+        <v>0.79540002346038796</v>
       </c>
       <c r="F79">
         <v>1.6296604648232401E-2</v>
@@ -24086,17 +24086,17 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="12">
-        <v>1.26584827739861E-5</v>
+      <c r="B80">
+        <v>5.6708939373493099E-3</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0.99830001592636097</v>
       </c>
       <c r="D80">
-        <v>1.7098363637924101</v>
+        <v>1.4641541242599401</v>
       </c>
       <c r="E80">
-        <v>0.79479998350143399</v>
+        <v>0.801400005817413</v>
       </c>
       <c r="F80">
         <v>1.9720951095223399E-2</v>
@@ -24115,17 +24115,17 @@
       <c r="A81" s="9">
         <v>79</v>
       </c>
-      <c r="B81" s="12">
-        <v>9.5462928584311107E-6</v>
+      <c r="B81">
+        <v>1.73987774178385E-3</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0.99945998191833496</v>
       </c>
       <c r="D81">
-        <v>1.7270091772079399</v>
+        <v>1.56628930568695</v>
       </c>
       <c r="E81">
-        <v>0.79509997367858798</v>
+        <v>0.80030000209808305</v>
       </c>
       <c r="F81">
         <v>1.8801853060722299E-2</v>
@@ -24144,17 +24144,17 @@
       <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="12">
-        <v>7.8554803621955199E-6</v>
+      <c r="B82">
+        <v>3.2967231236398198E-3</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0.99897998571395796</v>
       </c>
       <c r="D82">
-        <v>1.74181485176086</v>
+        <v>1.5496968030929501</v>
       </c>
       <c r="E82">
-        <v>0.79500001668929998</v>
+        <v>0.79100000858306796</v>
       </c>
       <c r="F82">
         <v>1.4434719458222301E-2</v>
@@ -24173,17 +24173,17 @@
       <c r="A83" s="9">
         <v>81</v>
       </c>
-      <c r="B83" s="12">
-        <v>6.7199389377492404E-6</v>
+      <c r="B83">
+        <v>5.7870019227266303E-3</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0.99826002120971602</v>
       </c>
       <c r="D83">
-        <v>1.7546740770339899</v>
+        <v>1.4058423042297301</v>
       </c>
       <c r="E83">
-        <v>0.79500001668929998</v>
+        <v>0.79790002107620195</v>
       </c>
       <c r="F83">
         <v>1.6449045389890601E-2</v>
@@ -24202,17 +24202,17 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="12">
-        <v>5.8870382417808202E-6</v>
+      <c r="B84">
+        <v>1.5479475259780799E-3</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0.99953997135162298</v>
       </c>
       <c r="D84">
-        <v>1.76632344722747</v>
+        <v>1.4879580736160201</v>
       </c>
       <c r="E84">
-        <v>0.79530000686645497</v>
+        <v>0.80339998006820601</v>
       </c>
       <c r="F84">
         <v>2.15374492108821E-2</v>
@@ -24231,17 +24231,17 @@
       <c r="A85" s="9">
         <v>83</v>
       </c>
-      <c r="B85" s="12">
-        <v>5.2440332183323301E-6</v>
+      <c r="B85">
+        <v>1.4312718121800501E-4</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0.99997997283935502</v>
       </c>
       <c r="D85">
-        <v>1.7768408060073799</v>
+        <v>1.5657818317413299</v>
       </c>
       <c r="E85">
-        <v>0.79559999704360895</v>
+        <v>0.80540001392364502</v>
       </c>
       <c r="F85">
         <v>1.8524065613746601E-2</v>
@@ -24261,16 +24261,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="12">
-        <v>4.73173895443324E-6</v>
+        <v>2.6313548005418801E-5</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1.78644824028015</v>
+        <v>1.5865789651870701</v>
       </c>
       <c r="E86">
-        <v>0.79559999704360895</v>
+        <v>0.805899977684021</v>
       </c>
       <c r="F86">
         <v>1.5401739627122799E-2</v>
@@ -24290,16 +24290,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="12">
-        <v>4.3119071051478301E-6</v>
+        <v>1.0190505236096199E-5</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>1.79537045955657</v>
+        <v>1.60286021232604</v>
       </c>
       <c r="E87">
-        <v>0.79570001363754195</v>
+        <v>0.80629998445510798</v>
       </c>
       <c r="F87">
         <v>1.8565308302640901E-2</v>
@@ -24319,16 +24319,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="12">
-        <v>3.9621018004254404E-6</v>
+        <v>8.1489479271112907E-6</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>1.80368864536285</v>
+        <v>1.61619961261749</v>
       </c>
       <c r="E88">
-        <v>0.79600000381469704</v>
+        <v>0.80669999122619596</v>
       </c>
       <c r="F88">
         <v>1.15961264818906E-2</v>
@@ -24348,16 +24348,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="12">
-        <v>3.664972837214E-6</v>
+        <v>6.88205773258232E-6</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>1.81144642829895</v>
+        <v>1.6277310848236</v>
       </c>
       <c r="E89">
-        <v>0.79589998722076405</v>
+        <v>0.80690002441406194</v>
       </c>
       <c r="F89">
         <v>1.9235601648688299E-2</v>
@@ -24377,16 +24377,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="12">
-        <v>3.4097704428859199E-6</v>
+        <v>5.9944559325231197E-6</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>1.81873714923858</v>
+        <v>1.63794565200805</v>
       </c>
       <c r="E90">
-        <v>0.79600000381469704</v>
+        <v>0.80709999799728305</v>
       </c>
       <c r="F90">
         <v>1.6257481649517999E-2</v>
@@ -24406,16 +24406,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="12">
-        <v>3.1883437259239098E-6</v>
+        <v>5.3263115660229198E-6</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>1.82564568519592</v>
+        <v>1.64716231822967</v>
       </c>
       <c r="E91">
-        <v>0.79600000381469704</v>
+        <v>0.80720001459121704</v>
       </c>
       <c r="F91">
         <v>1.9763195887207902E-2</v>
@@ -24435,16 +24435,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="12">
-        <v>2.9941793400212102E-6</v>
+        <v>4.7991170504246796E-6</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>1.8321557044982899</v>
+        <v>1.65579414367675</v>
       </c>
       <c r="E92">
-        <v>0.79600000381469704</v>
+        <v>0.80739998817443803</v>
       </c>
       <c r="F92">
         <v>1.6797605901956499E-2</v>
@@ -24464,16 +24464,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="12">
-        <v>2.8220752028573698E-6</v>
+        <v>4.3723730414057997E-6</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>1.83831167221069</v>
+        <v>1.6635372638702299</v>
       </c>
       <c r="E93">
-        <v>0.79610002040863004</v>
+        <v>0.80750000476837103</v>
       </c>
       <c r="F93">
         <v>1.5320423990488E-2</v>
@@ -24493,16 +24493,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="12">
-        <v>2.66893084699404E-6</v>
+        <v>4.0178056224249303E-6</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1.8441743850707999</v>
+        <v>1.6708613634109399</v>
       </c>
       <c r="E94">
-        <v>0.79600000381469704</v>
+        <v>0.80790001153945901</v>
       </c>
       <c r="F94">
         <v>1.40719823539257E-2</v>
@@ -24522,16 +24522,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="12">
-        <v>2.5315321181551498E-6</v>
+        <v>3.7179961509536901E-6</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>1.84979784488677</v>
+        <v>1.6776915788650499</v>
       </c>
       <c r="E95">
-        <v>0.79619997739791804</v>
+        <v>0.80809998512268</v>
       </c>
       <c r="F95">
         <v>1.31310569122433E-2</v>
@@ -24551,16 +24551,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="12">
-        <v>2.40764893533196E-6</v>
+        <v>3.4617046367202399E-6</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1.85517537593841</v>
+        <v>1.68411540985107</v>
       </c>
       <c r="E96">
-        <v>0.79610002040863004</v>
+        <v>0.80820000171661299</v>
       </c>
       <c r="F96">
         <v>1.99289061129093E-2</v>
@@ -24580,16 +24580,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="12">
-        <v>2.2949882350076202E-6</v>
+        <v>3.2390141768701099E-6</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>1.8603605031967101</v>
+        <v>1.69019711017608</v>
       </c>
       <c r="E97">
-        <v>0.79610002040863004</v>
+        <v>0.80820000171661299</v>
       </c>
       <c r="F97">
         <v>1.36212911456823E-2</v>
@@ -24609,16 +24609,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="12">
-        <v>2.1927291982137801E-6</v>
+        <v>3.04455375044199E-6</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>1.86530017852783</v>
+        <v>1.69587361812591</v>
       </c>
       <c r="E98">
-        <v>0.79610002040863004</v>
+        <v>0.80839997529983498</v>
       </c>
       <c r="F98">
         <v>1.4510857872664901E-2</v>
@@ -24638,16 +24638,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="12">
-        <v>2.09890390578948E-6</v>
+        <v>2.8720201044052302E-6</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1.87006080150604</v>
+        <v>1.7013034820556601</v>
       </c>
       <c r="E99">
-        <v>0.79610002040863004</v>
+        <v>0.80849999189376798</v>
       </c>
       <c r="F99">
         <v>8.5168546065688099E-3</v>
@@ -24667,16 +24667,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="12">
-        <v>2.01295779334031E-6</v>
+        <v>2.7185883482161401E-6</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1.8746132850646899</v>
+        <v>1.7064894437789899</v>
       </c>
       <c r="E100">
-        <v>0.79619997739791804</v>
+        <v>0.80849999189376798</v>
       </c>
       <c r="F100">
         <v>1.5806274488568299E-2</v>
@@ -24696,16 +24696,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="12">
-        <v>1.9338801848789402E-6</v>
+        <v>2.5804115466598798E-6</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>1.8790525197982699</v>
+        <v>1.7114168405532799</v>
       </c>
       <c r="E101">
-        <v>0.79619997739791804</v>
+        <v>0.80849999189376798</v>
       </c>
       <c r="F101">
         <v>1.7323631793260501E-2</v>
@@ -24725,16 +24725,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="12">
-        <v>1.8608116079121801E-6</v>
+        <v>2.45602973336644E-6</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>1.8833084106445299</v>
+        <v>1.7161402702331501</v>
       </c>
       <c r="E102">
-        <v>0.79629999399185103</v>
+        <v>0.80860000848770097</v>
       </c>
       <c r="F102">
         <v>1.4134750701487E-2</v>
